--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFC8C47-7938-41D9-BB08-6EDF8F921810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D4445-17A4-45EA-BE71-D8866A569421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2650" windowWidth="28620" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="6250" windowWidth="28620" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="328">
   <si>
     <t>Mobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,18 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일격필살 - 필살기. 공격타일이 4개 이상일때 사용가능하다. P(A)*5 데미지를 준다. 해당 적에게 의지 상실을 부여한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정권 - 보완. 한 적에게 P(A)*S+P(R) 만큼 데이지를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호신술 - 전환공격. 회복 및 방어가 공격으로 전환된다: S*P(R+D)만큼 피해를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기선제압 - 상태이상. S명의 적에게 취약을 부여하고 D*5만큼 상대의 방어도를 제거한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>칼날 폭풍 - 광역공격. (S+1)개의 대상에게 P(A) 만큼 피해를 준다 (랜덤 타깃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카르마 칼리마 - 보완. P(K+1+A) 세기로 공격한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1329,6 +1309,42 @@
   </si>
   <si>
     <t>매턴 방어도를 절반만 얻는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">칼날 폭풍 - 광역공격. (S+1)개의 대상에게 P(A) 만큼 피해를 준다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑스칼리버 - 필살기. 공격타일이 4개 이상일때 사용가능하다. P(A)*5 데미지를 준다. 해당 적에게 3턴간 의지 상실을 부여한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호신술 - 전환공격. 회복 및 방어가 공격으로 전환된다: S*P(R+D)만큼 피해를 준다 / 아니면 다음 턴에 받는 데미지 - S*P(R+D) 만큼만 받고 그대로 돌려준다? 어떰. 공격을 안당하면 데미지 안받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군을 강화시키는 몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 지원 서포터 몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가드어택 - 보완. 한 적에게 P(A)*S+P(D) 만큼 데이지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격 공격은 데미지를 받은만큼 돌려주는 것으로, 방어, absorption을 무시하고 들어간다 / 두 몹이 모두 카운터 어택이 있을 경우, 처음 한번만 적용된다 (핑퐁 안됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1971,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1996,21 +2012,21 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
@@ -2025,13 +2041,13 @@
         <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2063,7 +2079,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8">
         <f>2^(K7-1)</f>
@@ -2106,7 +2122,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
@@ -2114,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="U9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
@@ -2162,13 +2178,13 @@
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
@@ -2176,25 +2192,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36" t="s">
@@ -2285,21 +2301,21 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
@@ -2321,7 +2337,7 @@
       <c r="AH12" s="35"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK12" s="7"/>
     </row>
@@ -2345,60 +2361,60 @@
         <v>10</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="13"/>
       <c r="P13" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="13"/>
       <c r="T13" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="13"/>
       <c r="X13" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG13" s="35"/>
       <c r="AH13" s="35"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7">
         <v>80</v>
@@ -2417,21 +2433,21 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="13"/>
       <c r="P14" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
@@ -2449,13 +2465,13 @@
       <c r="AD14" s="35"/>
       <c r="AE14" s="13"/>
       <c r="AF14" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK14" s="7"/>
     </row>
@@ -2480,49 +2496,49 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="13"/>
       <c r="P15" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="13"/>
       <c r="T15" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="13"/>
       <c r="X15" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
       <c r="AE15" s="13"/>
       <c r="AF15" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AK15" s="7"/>
     </row>
@@ -2546,60 +2562,60 @@
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
       <c r="O16" s="13"/>
       <c r="P16" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="13"/>
       <c r="T16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="13"/>
       <c r="X16" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
       <c r="AE16" s="13"/>
       <c r="AF16" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG16" s="35"/>
       <c r="AH16" s="35"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AK16" s="7"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="B17" s="7">
         <v>80</v>
@@ -2618,55 +2634,55 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="13"/>
       <c r="P17" s="12" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="13"/>
       <c r="T17" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="13"/>
       <c r="X17" s="12" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="12" t="s">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
       <c r="AE17" s="13"/>
       <c r="AF17" s="12" t="s">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="AG17" s="35"/>
       <c r="AH17" s="35"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.45">
@@ -2690,11 +2706,11 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="6"/>
@@ -2722,7 +2738,7 @@
       <c r="AH18" s="35"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK18" s="7"/>
     </row>
@@ -3116,28 +3132,28 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AX28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="D31" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="T31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AB31" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AC31" s="36"/>
       <c r="AD31" s="36"/>
@@ -3159,7 +3175,7 @@
       <c r="AT31" s="36"/>
       <c r="AU31" s="36"/>
       <c r="AX31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:65" ht="17.5" x14ac:dyDescent="0.45">
@@ -3167,41 +3183,41 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>29</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
       <c r="T32" s="36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
@@ -3209,10 +3225,10 @@
       <c r="X32" s="36"/>
       <c r="Y32" s="36"/>
       <c r="Z32" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AB32" s="1">
         <v>5</v>
@@ -3275,40 +3291,40 @@
         <v>100</v>
       </c>
       <c r="AX32" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA32" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="BA32" s="24" t="s">
-        <v>210</v>
-      </c>
       <c r="BD32" s="28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="BG32" s="30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BJ32" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="BM32" s="31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
@@ -3322,7 +3338,7 @@
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
       <c r="T33" s="41" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
@@ -3370,33 +3386,33 @@
       <c r="AT33" s="20"/>
       <c r="AU33" s="20"/>
       <c r="AV33" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AW33" s="27"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="35" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
@@ -3407,7 +3423,7 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
       <c r="T34" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
@@ -3457,38 +3473,38 @@
       <c r="AT34" s="20"/>
       <c r="AU34" s="20"/>
       <c r="AV34" s="26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AW34" s="27"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -3496,7 +3512,7 @@
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
@@ -3540,33 +3556,33 @@
       <c r="AT35" s="20"/>
       <c r="AU35" s="20"/>
       <c r="AV35" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AW35" s="27"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
       <c r="K36" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -3577,7 +3593,7 @@
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
@@ -3627,46 +3643,46 @@
       <c r="AT36" s="20"/>
       <c r="AU36" s="20"/>
       <c r="AV36" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AW36" s="27"/>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
       <c r="K37" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="41" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
@@ -3703,36 +3719,36 @@
       <c r="AT37" s="20"/>
       <c r="AU37" s="20"/>
       <c r="AV37" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AW37" s="27"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
       <c r="K38" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -3740,7 +3756,7 @@
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
       <c r="T38" s="41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
@@ -3778,31 +3794,31 @@
       <c r="AT38" s="20"/>
       <c r="AU38" s="20"/>
       <c r="AV38" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AW38" s="27"/>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
       <c r="K39" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -3813,7 +3829,7 @@
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
       <c r="T39" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -3863,31 +3879,31 @@
       <c r="AT39" s="20"/>
       <c r="AU39" s="20"/>
       <c r="AV39" s="26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AW39" s="27"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
       <c r="K40" s="35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
@@ -3898,7 +3914,7 @@
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="41" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -3931,33 +3947,33 @@
       <c r="AT40" s="20"/>
       <c r="AU40" s="20"/>
       <c r="AV40" s="26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AW40" s="27"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
       <c r="K41" s="35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3968,7 +3984,7 @@
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
       <c r="T41" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -4007,33 +4023,33 @@
       <c r="AT41" s="20"/>
       <c r="AU41" s="20"/>
       <c r="AV41" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AW41" s="27"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
       <c r="K42" s="35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -4044,7 +4060,7 @@
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
       <c r="T42" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -4094,27 +4110,27 @@
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
       <c r="K43" s="35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -4125,7 +4141,7 @@
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
       <c r="T43" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -4174,27 +4190,27 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -4205,7 +4221,7 @@
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
       <c r="T44" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
@@ -4254,30 +4270,30 @@
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="35" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
       <c r="K45" s="38" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L45" s="39"/>
       <c r="M45" s="40"/>
       <c r="N45" s="38" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="O45" s="39"/>
       <c r="P45" s="40"/>
@@ -4285,7 +4301,7 @@
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
       <c r="T45" s="35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
@@ -4335,7 +4351,7 @@
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7">
@@ -4343,22 +4359,22 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="35" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -4366,7 +4382,7 @@
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
       <c r="T46" s="35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
@@ -4406,7 +4422,7 @@
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7">
@@ -4414,22 +4430,22 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="35" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
       <c r="N47" s="38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O47" s="39"/>
       <c r="P47" s="40"/>
@@ -4437,7 +4453,7 @@
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
       <c r="T47" s="35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
@@ -4477,7 +4493,7 @@
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7">
@@ -4485,32 +4501,32 @@
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
       <c r="Q48" s="35" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
       <c r="T48" s="35" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
@@ -4550,7 +4566,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7">
@@ -4560,32 +4576,32 @@
         <v>10</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I49" s="35"/>
       <c r="J49" s="35"/>
       <c r="K49" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
       <c r="N49" s="35" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
       <c r="Q49" s="35" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
       <c r="T49" s="41" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
@@ -4593,7 +4609,7 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AA49" s="7"/>
       <c r="AB49" s="20"/>
@@ -4622,7 +4638,9 @@
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="35"/>
@@ -4673,7 +4691,9 @@
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A51" s="16"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="35"/>
@@ -5386,25 +5406,25 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A65" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
@@ -5415,7 +5435,7 @@
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
       <c r="T65" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
@@ -5448,27 +5468,27 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
@@ -5479,7 +5499,7 @@
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
       <c r="T66" s="41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
@@ -5513,32 +5533,32 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A67" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
       <c r="N67" s="35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O67" s="35"/>
       <c r="P67" s="35"/>
@@ -5546,7 +5566,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
@@ -5769,7 +5789,7 @@
       <c r="AT71" s="20"/>
       <c r="AU71" s="20"/>
       <c r="AV71" s="26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AW71" s="27"/>
       <c r="AX71" s="27"/>
@@ -7347,7 +7367,7 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7372,167 +7392,175 @@
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" t="s">
         <v>92</v>
       </c>
-      <c r="B117" t="s">
-        <v>93</v>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B130" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C130" s="15"/>
     </row>
@@ -7541,10 +7569,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D131" s="36"/>
       <c r="E131" s="1"/>
@@ -7567,13 +7595,13 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B132" s="7">
         <v>2</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
@@ -7596,13 +7624,13 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B133" s="7">
         <v>2</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
@@ -7625,13 +7653,13 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B134" s="7">
         <v>1</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
@@ -7654,13 +7682,13 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B135" s="7">
         <v>3</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
@@ -7683,13 +7711,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B136" s="7">
         <v>3</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
@@ -7712,13 +7740,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B137" s="7">
         <v>3</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
@@ -7741,13 +7769,13 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B138" s="7">
         <v>3</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
@@ -7770,13 +7798,13 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B139" s="7">
         <v>2</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -7799,13 +7827,13 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B140" s="7">
         <v>2</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -7828,13 +7856,13 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B141" s="7">
         <v>2</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -7857,13 +7885,13 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B142" s="7">
         <v>1</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -7886,13 +7914,13 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B143" s="7">
         <v>1</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -7915,13 +7943,13 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B144" s="7">
         <v>2</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
@@ -7944,13 +7972,13 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B145" s="7">
         <v>2</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
@@ -7973,13 +8001,13 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B146" s="7">
         <v>2</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
@@ -8002,13 +8030,13 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B147" s="7">
         <v>1</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
@@ -8031,13 +8059,13 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B148" s="7">
         <v>2</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
@@ -8060,13 +8088,13 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B149" s="7">
         <v>2</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
@@ -8089,13 +8117,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B150" s="7">
         <v>2</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
@@ -8118,13 +8146,13 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B151" s="7">
         <v>2</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
@@ -8147,13 +8175,13 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B152" s="7">
         <v>2</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
@@ -8176,13 +8204,13 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B153" s="7">
         <v>2</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
@@ -8205,13 +8233,13 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B154" s="7">
         <v>2</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
@@ -8234,13 +8262,13 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B155" s="7">
         <v>2</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D4445-17A4-45EA-BE71-D8866A569421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFC8C47-7938-41D9-BB08-6EDF8F921810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="6250" windowWidth="28620" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="2650" windowWidth="28620" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="324">
   <si>
     <t>Mobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,6 +450,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>일격필살 - 필살기. 공격타일이 4개 이상일때 사용가능하다. P(A)*5 데미지를 준다. 해당 적에게 의지 상실을 부여한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정권 - 보완. 한 적에게 P(A)*S+P(R) 만큼 데이지를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호신술 - 전환공격. 회복 및 방어가 공격으로 전환된다: S*P(R+D)만큼 피해를 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기선제압 - 상태이상. S명의 적에게 취약을 부여하고 D*5만큼 상대의 방어도를 제거한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,6 +470,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>칼날 폭풍 - 광역공격. (S+1)개의 대상에게 P(A) 만큼 피해를 준다 (랜덤 타깃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>카르마 칼리마 - 보완. P(K+1+A) 세기로 공격한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1309,42 +1329,6 @@
   </si>
   <si>
     <t>매턴 방어도를 절반만 얻는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">칼날 폭풍 - 광역공격. (S+1)개의 대상에게 P(A) 만큼 피해를 준다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑스칼리버 - 필살기. 공격타일이 4개 이상일때 사용가능하다. P(A)*5 데미지를 준다. 해당 적에게 3턴간 의지 상실을 부여한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호신술 - 전환공격. 회복 및 방어가 공격으로 전환된다: S*P(R+D)만큼 피해를 준다 / 아니면 다음 턴에 받는 데미지 - S*P(R+D) 만큼만 받고 그대로 돌려준다? 어떰. 공격을 안당하면 데미지 안받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군을 강화시키는 몹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역 지원 서포터 몹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가드어택 - 보완. 한 적에게 P(A)*S+P(D) 만큼 데이지를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반격 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반격 공격은 데미지를 받은만큼 돌려주는 것으로, 방어, absorption을 무시하고 들어간다 / 두 몹이 모두 카운터 어택이 있을 경우, 처음 한번만 적용된다 (핑퐁 안됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1987,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2012,21 +1996,21 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
@@ -2041,13 +2025,13 @@
         <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2079,7 +2063,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <f>2^(K7-1)</f>
@@ -2122,7 +2106,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
@@ -2130,7 +2114,7 @@
         <v>22</v>
       </c>
       <c r="U9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
@@ -2178,13 +2162,13 @@
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
@@ -2192,25 +2176,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36" t="s">
@@ -2301,21 +2285,21 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
@@ -2337,7 +2321,7 @@
       <c r="AH12" s="35"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" s="7"/>
     </row>
@@ -2361,60 +2345,60 @@
         <v>10</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="13"/>
       <c r="P13" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="13"/>
       <c r="T13" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="13"/>
       <c r="X13" s="12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG13" s="35"/>
       <c r="AH13" s="35"/>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AK13" s="7"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" s="7">
         <v>80</v>
@@ -2433,21 +2417,21 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="13"/>
       <c r="P14" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
@@ -2465,13 +2449,13 @@
       <c r="AD14" s="35"/>
       <c r="AE14" s="13"/>
       <c r="AF14" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK14" s="7"/>
     </row>
@@ -2496,49 +2480,49 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="13"/>
       <c r="P15" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="13"/>
       <c r="T15" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="13"/>
       <c r="X15" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="12" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
       <c r="AE15" s="13"/>
       <c r="AF15" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AK15" s="7"/>
     </row>
@@ -2562,60 +2546,60 @@
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
       <c r="O16" s="13"/>
       <c r="P16" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="13"/>
       <c r="T16" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="13"/>
       <c r="X16" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
       <c r="AE16" s="13"/>
       <c r="AF16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG16" s="35"/>
       <c r="AH16" s="35"/>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK16" s="7"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7">
         <v>80</v>
@@ -2634,55 +2618,55 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="13"/>
       <c r="P17" s="12" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="13"/>
       <c r="T17" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="13"/>
       <c r="X17" s="12" t="s">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="12" t="s">
-        <v>325</v>
+        <v>104</v>
       </c>
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
       <c r="AE17" s="13"/>
       <c r="AF17" s="12" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="AG17" s="35"/>
       <c r="AH17" s="35"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AK17" s="7"/>
       <c r="AL17" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.45">
@@ -2706,11 +2690,11 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="6"/>
@@ -2738,7 +2722,7 @@
       <c r="AH18" s="35"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK18" s="7"/>
     </row>
@@ -3132,28 +3116,28 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AX28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX29" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="D31" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="T31" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AB31" s="36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AC31" s="36"/>
       <c r="AD31" s="36"/>
@@ -3175,7 +3159,7 @@
       <c r="AT31" s="36"/>
       <c r="AU31" s="36"/>
       <c r="AX31" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:65" ht="17.5" x14ac:dyDescent="0.45">
@@ -3183,41 +3167,41 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
       <c r="T32" s="36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
@@ -3225,10 +3209,10 @@
       <c r="X32" s="36"/>
       <c r="Y32" s="36"/>
       <c r="Z32" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AB32" s="1">
         <v>5</v>
@@ -3291,40 +3275,40 @@
         <v>100</v>
       </c>
       <c r="AX32" s="17" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BA32" s="24" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BD32" s="28" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="BG32" s="30" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="BJ32" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BM32" s="31" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="35"/>
@@ -3338,7 +3322,7 @@
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
       <c r="T33" s="41" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
@@ -3386,33 +3370,33 @@
       <c r="AT33" s="20"/>
       <c r="AU33" s="20"/>
       <c r="AV33" s="26" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AW33" s="27"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
@@ -3423,7 +3407,7 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
       <c r="T34" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
@@ -3473,38 +3457,38 @@
       <c r="AT34" s="20"/>
       <c r="AU34" s="20"/>
       <c r="AV34" s="26" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AW34" s="27"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="35" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="35" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -3512,7 +3496,7 @@
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
       <c r="T35" s="41" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
@@ -3556,33 +3540,33 @@
       <c r="AT35" s="20"/>
       <c r="AU35" s="20"/>
       <c r="AV35" s="26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AW35" s="27"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
       <c r="K36" s="35" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -3593,7 +3577,7 @@
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
       <c r="T36" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
@@ -3643,46 +3627,46 @@
       <c r="AT36" s="20"/>
       <c r="AU36" s="20"/>
       <c r="AV36" s="26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AW36" s="27"/>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
       <c r="K37" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
       <c r="Q37" s="35" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="41" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
@@ -3719,36 +3703,36 @@
       <c r="AT37" s="20"/>
       <c r="AU37" s="20"/>
       <c r="AV37" s="26" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AW37" s="27"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A38" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
       <c r="K38" s="35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -3756,7 +3740,7 @@
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
       <c r="T38" s="41" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
@@ -3794,31 +3778,31 @@
       <c r="AT38" s="20"/>
       <c r="AU38" s="20"/>
       <c r="AV38" s="26" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AW38" s="27"/>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
       <c r="K39" s="35" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -3829,7 +3813,7 @@
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
       <c r="T39" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -3879,31 +3863,31 @@
       <c r="AT39" s="20"/>
       <c r="AU39" s="20"/>
       <c r="AV39" s="26" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AW39" s="27"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
       <c r="K40" s="35" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
@@ -3914,7 +3898,7 @@
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="41" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -3947,33 +3931,33 @@
       <c r="AT40" s="20"/>
       <c r="AU40" s="20"/>
       <c r="AV40" s="26" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AW40" s="27"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
       <c r="K41" s="35" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3984,7 +3968,7 @@
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
       <c r="T41" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -4023,33 +4007,33 @@
       <c r="AT41" s="20"/>
       <c r="AU41" s="20"/>
       <c r="AV41" s="26" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AW41" s="27"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="35" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
       <c r="K42" s="35" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -4060,7 +4044,7 @@
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
       <c r="T42" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -4110,27 +4094,27 @@
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="35" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
       <c r="K43" s="35" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -4141,7 +4125,7 @@
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
       <c r="T43" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -4190,27 +4174,27 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="35" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -4221,7 +4205,7 @@
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
       <c r="T44" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
@@ -4270,30 +4254,30 @@
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="35" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
       <c r="K45" s="38" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L45" s="39"/>
       <c r="M45" s="40"/>
       <c r="N45" s="38" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O45" s="39"/>
       <c r="P45" s="40"/>
@@ -4301,7 +4285,7 @@
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
       <c r="T45" s="35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
@@ -4351,7 +4335,7 @@
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7">
@@ -4359,22 +4343,22 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="35" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="35" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -4382,7 +4366,7 @@
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
       <c r="T46" s="35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
@@ -4422,7 +4406,7 @@
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7">
@@ -4430,22 +4414,22 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="35" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
       <c r="N47" s="38" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O47" s="39"/>
       <c r="P47" s="40"/>
@@ -4453,7 +4437,7 @@
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
       <c r="T47" s="35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
@@ -4493,7 +4477,7 @@
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="7">
@@ -4501,32 +4485,32 @@
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="35" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="35" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
       <c r="Q48" s="35" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
       <c r="T48" s="35" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
@@ -4566,7 +4550,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7">
@@ -4576,32 +4560,32 @@
         <v>10</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I49" s="35"/>
       <c r="J49" s="35"/>
       <c r="K49" s="35" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
       <c r="N49" s="35" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
       <c r="Q49" s="35" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
       <c r="T49" s="41" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
@@ -4609,7 +4593,7 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA49" s="7"/>
       <c r="AB49" s="20"/>
@@ -4638,9 +4622,7 @@
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
-      <c r="B50" s="6" t="s">
-        <v>323</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="35"/>
@@ -4691,9 +4673,7 @@
     </row>
     <row r="51" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A51" s="16"/>
-      <c r="B51" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="35"/>
@@ -5406,25 +5386,25 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A65" s="16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
@@ -5435,7 +5415,7 @@
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
       <c r="T65" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
@@ -5468,27 +5448,27 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A66" s="16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
@@ -5499,7 +5479,7 @@
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
       <c r="T66" s="41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
@@ -5533,32 +5513,32 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A67" s="16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L67" s="35"/>
       <c r="M67" s="35"/>
       <c r="N67" s="35" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O67" s="35"/>
       <c r="P67" s="35"/>
@@ -5566,7 +5546,7 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
       <c r="T67" s="35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
@@ -5789,7 +5769,7 @@
       <c r="AT71" s="20"/>
       <c r="AU71" s="20"/>
       <c r="AV71" s="26" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AW71" s="27"/>
       <c r="AX71" s="27"/>
@@ -7367,7 +7347,7 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7392,175 +7372,167 @@
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>326</v>
-      </c>
-      <c r="B118" t="s">
-        <v>327</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B130" s="15" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C130" s="15"/>
     </row>
@@ -7569,10 +7541,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D131" s="36"/>
       <c r="E131" s="1"/>
@@ -7595,13 +7567,13 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B132" s="7">
         <v>2</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
@@ -7624,13 +7596,13 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B133" s="7">
         <v>2</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
@@ -7653,13 +7625,13 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B134" s="7">
         <v>1</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
@@ -7682,13 +7654,13 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B135" s="7">
         <v>3</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
@@ -7711,13 +7683,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B136" s="7">
         <v>3</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
@@ -7740,13 +7712,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B137" s="7">
         <v>3</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
@@ -7769,13 +7741,13 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B138" s="7">
         <v>3</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
@@ -7798,13 +7770,13 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B139" s="7">
         <v>2</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -7827,13 +7799,13 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B140" s="7">
         <v>2</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -7856,13 +7828,13 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B141" s="7">
         <v>2</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -7885,13 +7857,13 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B142" s="7">
         <v>1</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -7914,13 +7886,13 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B143" s="7">
         <v>1</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -7943,13 +7915,13 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B144" s="7">
         <v>2</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
@@ -7972,13 +7944,13 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B145" s="7">
         <v>2</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
@@ -8001,13 +7973,13 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B146" s="7">
         <v>2</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
@@ -8030,13 +8002,13 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B147" s="7">
         <v>1</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
@@ -8059,13 +8031,13 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B148" s="7">
         <v>2</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
@@ -8088,13 +8060,13 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B149" s="7">
         <v>2</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
@@ -8117,13 +8089,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B150" s="7">
         <v>2</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
@@ -8146,13 +8118,13 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B151" s="7">
         <v>2</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
@@ -8175,13 +8147,13 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B152" s="7">
         <v>2</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
@@ -8204,13 +8176,13 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B153" s="7">
         <v>2</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
@@ -8233,13 +8205,13 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B154" s="7">
         <v>2</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
@@ -8262,13 +8234,13 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B155" s="7">
         <v>2</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C06913-9DE7-44E5-9FB1-D64149ADD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA25EC1-B193-4971-868C-2CA45362A8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1718,11 +1718,17 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1730,8 +1736,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1742,23 +1748,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,7 +2043,7 @@
   <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+      <selection activeCell="AC23" sqref="AC23:AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2181,85 +2181,85 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42" t="s">
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="L10" s="41" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41" t="s">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41" t="s">
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41" t="s">
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="43" t="s">
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="AK10" s="43" t="s">
+      <c r="AK10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="AL10" t="s">
@@ -2288,76 +2288,76 @@
       <c r="G11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="37"/>
+      <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="45" t="s">
+      <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="35"/>
+      <c r="R11" s="37"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="35"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X11" s="45" t="s">
+      <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="35" t="s">
+      <c r="Y11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="35"/>
+      <c r="Z11" s="37"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB11" s="45" t="s">
+      <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="35" t="s">
+      <c r="AC11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="35"/>
+      <c r="AD11" s="37"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF11" s="45" t="s">
+      <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="35" t="s">
+      <c r="AG11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="35"/>
+      <c r="AH11" s="37"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
       <c r="AL11" t="s">
         <v>116</v>
       </c>
@@ -2382,46 +2382,46 @@
         <v>6</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
       <c r="AI12" s="12"/>
-      <c r="AJ12" s="44" t="s">
+      <c r="AJ12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="AK12" s="44"/>
+      <c r="AK12" s="33"/>
       <c r="AL12" t="s">
         <v>320</v>
       </c>
@@ -2448,49 +2448,49 @@
       <c r="G13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34" t="s">
+      <c r="I13" s="45"/>
+      <c r="J13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6" t="s">
         <v>137</v>
@@ -2517,43 +2517,43 @@
         <v>6</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>139</v>
@@ -2580,47 +2580,47 @@
         <v>8</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6" t="s">
         <v>137</v>
@@ -2660,38 +2660,38 @@
       <c r="L16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>139</v>
@@ -2718,49 +2718,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="34"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="6" t="s">
         <v>137</v>
@@ -2790,37 +2790,37 @@
         <v>10</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6" t="s">
         <v>136</v>
@@ -2835,33 +2835,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2874,33 +2874,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2913,33 +2913,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2952,33 +2952,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -2991,33 +2991,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3030,33 +3030,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3069,33 +3069,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3108,33 +3108,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3147,33 +3147,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3186,33 +3186,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3237,28 +3237,28 @@
       <c r="T31" t="s">
         <v>276</v>
       </c>
-      <c r="AB31" s="35" t="s">
+      <c r="AB31" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="35"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
       <c r="AX31" t="s">
         <v>200</v>
       </c>
@@ -3276,39 +3276,39 @@
       <c r="D32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35" t="s">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35" t="s">
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35" t="s">
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35" t="s">
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35" t="s">
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
       <c r="Z32" s="1" t="s">
         <v>142</v>
       </c>
@@ -3405,31 +3405,31 @@
         <v>291</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="40" t="s">
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3486,35 +3486,35 @@
         <v>296</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34" t="s">
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="40" t="s">
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3573,37 +3573,37 @@
         <v>298</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34" t="s">
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34" t="s">
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34" t="s">
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="40" t="s">
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3656,35 +3656,35 @@
         <v>297</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34" t="s">
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="40" t="s">
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3743,37 +3743,37 @@
         <v>299</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34" t="s">
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34" t="s">
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34" t="s">
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="40" t="s">
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3819,35 +3819,35 @@
         <v>291</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34" t="s">
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34" t="s">
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34" t="s">
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="40" t="s">
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3894,33 +3894,33 @@
         <v>303</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34" t="s">
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34" t="s">
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="40" t="s">
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -3979,33 +3979,33 @@
         <v>302</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34" t="s">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34" t="s">
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="40" t="s">
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4047,35 +4047,35 @@
         <v>304</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34" t="s">
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="40" t="s">
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4123,35 +4123,35 @@
         <v>308</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34" t="s">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34" t="s">
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="40" t="s">
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4204,35 +4204,35 @@
         <v>299</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34" t="s">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="40" t="s">
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4284,35 +4284,35 @@
         <v>299</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34" t="s">
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34" t="s">
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="40" t="s">
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4362,37 +4362,37 @@
         <v>306</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34" t="s">
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="37" t="s">
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="L45" s="38"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="37" t="s">
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O45" s="38"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34" t="s">
+      <c r="O45" s="40"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4443,37 +4443,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34" t="s">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34" t="s">
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34" t="s">
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34" t="s">
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4514,37 +4514,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34" t="s">
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34" t="s">
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="37" t="s">
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="O47" s="38"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34" t="s">
+      <c r="O47" s="40"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4585,39 +4585,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34" t="s">
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34" t="s">
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34" t="s">
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34" t="s">
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34" t="s">
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4660,39 +4660,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34" t="s">
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34" t="s">
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34" t="s">
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34" t="s">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="40" t="s">
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
       <c r="Z49" s="6" t="s">
         <v>289</v>
       </c>
@@ -4726,27 +4726,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4777,27 +4777,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4828,27 +4828,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4879,27 +4879,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4930,27 +4930,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -4981,27 +4981,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5032,27 +5032,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5083,27 +5083,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5134,27 +5134,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5185,27 +5185,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5235,27 +5235,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5286,27 +5286,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5337,27 +5337,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5388,27 +5388,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5439,27 +5439,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5496,33 +5496,33 @@
       <c r="D65" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34" t="s">
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34" t="s">
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="40" t="s">
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5558,35 +5558,35 @@
       <c r="D66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34" t="s">
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34" t="s">
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="40" t="s">
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5623,37 +5623,37 @@
       <c r="D67" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34" t="s">
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34" t="s">
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34" t="s">
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34" t="s">
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5682,27 +5682,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5724,27 +5724,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5774,27 +5774,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5826,27 +5826,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5880,27 +5880,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5932,27 +5932,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -5984,27 +5984,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6036,27 +6036,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="36"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6088,27 +6088,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="36"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6140,27 +6140,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="34"/>
-      <c r="X77" s="34"/>
-      <c r="Y77" s="34"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6192,27 +6192,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="34"/>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6244,27 +6244,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6296,27 +6296,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="34"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="34"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6348,27 +6348,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="34"/>
-      <c r="W81" s="34"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6400,27 +6400,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="34"/>
-      <c r="W82" s="34"/>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="36"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6452,27 +6452,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6504,27 +6504,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6556,27 +6556,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="34"/>
-      <c r="W85" s="34"/>
-      <c r="X85" s="34"/>
-      <c r="Y85" s="34"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6608,27 +6608,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="34"/>
-      <c r="W86" s="34"/>
-      <c r="X86" s="34"/>
-      <c r="Y86" s="34"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6660,27 +6660,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="34"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6712,27 +6712,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="34"/>
-      <c r="X88" s="34"/>
-      <c r="Y88" s="34"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="36"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6764,27 +6764,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="34"/>
-      <c r="W89" s="34"/>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6816,27 +6816,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="34"/>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6868,27 +6868,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="34"/>
-      <c r="W91" s="34"/>
-      <c r="X91" s="34"/>
-      <c r="Y91" s="34"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6920,27 +6920,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="34"/>
-      <c r="W92" s="34"/>
-      <c r="X92" s="34"/>
-      <c r="Y92" s="34"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -6972,27 +6972,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="34"/>
-      <c r="W93" s="34"/>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="34"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="36"/>
+      <c r="Y93" s="36"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7024,27 +7024,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34"/>
-      <c r="S94" s="34"/>
-      <c r="T94" s="34"/>
-      <c r="U94" s="34"/>
-      <c r="V94" s="34"/>
-      <c r="W94" s="34"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7076,27 +7076,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="34"/>
-      <c r="N95" s="34"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
-      <c r="T95" s="34"/>
-      <c r="U95" s="34"/>
-      <c r="V95" s="34"/>
-      <c r="W95" s="34"/>
-      <c r="X95" s="34"/>
-      <c r="Y95" s="34"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="36"/>
+      <c r="V95" s="36"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="36"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7128,27 +7128,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
-      <c r="T96" s="34"/>
-      <c r="U96" s="34"/>
-      <c r="V96" s="34"/>
-      <c r="W96" s="34"/>
-      <c r="X96" s="34"/>
-      <c r="Y96" s="34"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7180,27 +7180,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="34"/>
-      <c r="O97" s="34"/>
-      <c r="P97" s="34"/>
-      <c r="Q97" s="34"/>
-      <c r="R97" s="34"/>
-      <c r="S97" s="34"/>
-      <c r="T97" s="34"/>
-      <c r="U97" s="34"/>
-      <c r="V97" s="34"/>
-      <c r="W97" s="34"/>
-      <c r="X97" s="34"/>
-      <c r="Y97" s="34"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="36"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7232,27 +7232,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
-      <c r="U98" s="34"/>
-      <c r="V98" s="34"/>
-      <c r="W98" s="34"/>
-      <c r="X98" s="34"/>
-      <c r="Y98" s="34"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7284,27 +7284,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="34"/>
-      <c r="R99" s="34"/>
-      <c r="S99" s="34"/>
-      <c r="T99" s="34"/>
-      <c r="U99" s="34"/>
-      <c r="V99" s="34"/>
-      <c r="W99" s="34"/>
-      <c r="X99" s="34"/>
-      <c r="Y99" s="34"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7336,27 +7336,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="34"/>
-      <c r="R100" s="34"/>
-      <c r="S100" s="34"/>
-      <c r="T100" s="34"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="34"/>
-      <c r="W100" s="34"/>
-      <c r="X100" s="34"/>
-      <c r="Y100" s="34"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7388,27 +7388,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="34"/>
-      <c r="P101" s="34"/>
-      <c r="Q101" s="34"/>
-      <c r="R101" s="34"/>
-      <c r="S101" s="34"/>
-      <c r="T101" s="34"/>
-      <c r="U101" s="34"/>
-      <c r="V101" s="34"/>
-      <c r="W101" s="34"/>
-      <c r="X101" s="34"/>
-      <c r="Y101" s="34"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7644,10 +7644,10 @@
       <c r="B131" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D131" s="35"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9234,6 +9234,556 @@
     </row>
   </sheetData>
   <mergeCells count="574">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
     <mergeCell ref="L9:S9"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="AB9:AI9"/>
@@ -9258,556 +9808,6 @@
     <mergeCell ref="T86:Y86"/>
     <mergeCell ref="T87:Y87"/>
     <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA25EC1-B193-4971-868C-2CA45362A8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5075D735-3AD7-44A7-B5E2-7522A87A55F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="328">
   <si>
     <t>Mobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1341,6 +1341,10 @@
   </si>
   <si>
     <t>일격필살 - 필살기. 공격타일이 1개 이상일때 사용가능하다. (A+S)*10 데미지를 준다. 해당 적에게 의지 상실을 부여한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 스킬 업글을 할 수 있음 =&gt; 스킬 코스트를 1 줄일 수 있음 (1강만 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1727,8 +1731,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1736,8 +1743,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1748,17 +1758,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,7 +2047,7 @@
   <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23:AD23"/>
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2181,81 +2185,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35" t="s">
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AL9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="L10" s="42" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="L10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42" t="s">
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42" t="s">
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42" t="s">
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
       <c r="AJ10" s="32" t="s">
         <v>135</v>
       </c>
@@ -2288,71 +2295,71 @@
       <c r="G11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="37"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="U11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="37"/>
+      <c r="V11" s="38"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="37" t="s">
+      <c r="Y11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="37"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="37" t="s">
+      <c r="AC11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="37"/>
+      <c r="AD11" s="38"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="37" t="s">
+      <c r="AG11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="37"/>
+      <c r="AH11" s="38"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2382,41 +2389,41 @@
         <v>6</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="36"/>
+      <c r="J12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33" t="s">
         <v>136</v>
@@ -2448,49 +2455,49 @@
       <c r="G13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="36" t="s">
+      <c r="I13" s="36"/>
+      <c r="J13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6" t="s">
         <v>137</v>
@@ -2517,43 +2524,43 @@
         <v>6</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="36" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>139</v>
@@ -2580,47 +2587,47 @@
         <v>8</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6" t="s">
         <v>137</v>
@@ -2660,38 +2667,38 @@
       <c r="L16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>139</v>
@@ -2718,49 +2725,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="36" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="6" t="s">
         <v>137</v>
@@ -2790,37 +2797,37 @@
         <v>10</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="36" t="s">
+      <c r="I18" s="36"/>
+      <c r="J18" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6" t="s">
         <v>136</v>
@@ -2835,33 +2842,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2874,33 +2881,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2913,33 +2920,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2952,33 +2959,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -2991,33 +2998,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3030,33 +3037,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3069,33 +3076,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3108,33 +3115,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3147,33 +3154,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3186,33 +3193,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3237,28 +3244,28 @@
       <c r="T31" t="s">
         <v>276</v>
       </c>
-      <c r="AB31" s="37" t="s">
+      <c r="AB31" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
       <c r="AX31" t="s">
         <v>200</v>
       </c>
@@ -3276,39 +3283,39 @@
       <c r="D32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37" t="s">
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37" t="s">
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37" t="s">
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37" t="s">
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
       <c r="Z32" s="1" t="s">
         <v>142</v>
       </c>
@@ -3405,31 +3412,31 @@
         <v>291</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="38" t="s">
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3486,35 +3493,35 @@
         <v>296</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36" t="s">
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="38" t="s">
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3573,37 +3580,37 @@
         <v>298</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36" t="s">
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36" t="s">
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="38" t="s">
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3656,35 +3663,35 @@
         <v>297</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36" t="s">
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36" t="s">
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="38" t="s">
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3743,37 +3750,37 @@
         <v>299</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36" t="s">
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36" t="s">
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36" t="s">
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="38" t="s">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3819,35 +3826,35 @@
         <v>291</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36" t="s">
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36" t="s">
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="38" t="s">
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3894,33 +3901,33 @@
         <v>303</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36" t="s">
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36" t="s">
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="38" t="s">
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -3979,33 +3986,33 @@
         <v>302</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36" t="s">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36" t="s">
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="38" t="s">
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4047,35 +4054,35 @@
         <v>304</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36" t="s">
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="38" t="s">
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4123,35 +4130,35 @@
         <v>308</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36" t="s">
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36" t="s">
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="38" t="s">
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4204,35 +4211,35 @@
         <v>299</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36" t="s">
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36" t="s">
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="38" t="s">
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4284,35 +4291,35 @@
         <v>299</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36" t="s">
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36" t="s">
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="38" t="s">
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4362,37 +4369,37 @@
         <v>306</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="39" t="s">
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="39" t="s">
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="O45" s="40"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36" t="s">
+      <c r="O45" s="42"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4443,37 +4450,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36" t="s">
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36" t="s">
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36" t="s">
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36" t="s">
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4514,37 +4521,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36" t="s">
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36" t="s">
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="39" t="s">
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="O47" s="40"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36" t="s">
+      <c r="O47" s="42"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4585,39 +4592,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36" t="s">
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36" t="s">
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36" t="s">
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36" t="s">
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4660,39 +4667,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36" t="s">
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36" t="s">
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36" t="s">
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36" t="s">
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="38" t="s">
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
       <c r="Z49" s="6" t="s">
         <v>289</v>
       </c>
@@ -4726,27 +4733,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4777,27 +4784,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4828,27 +4835,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4879,27 +4886,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4930,27 +4937,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -4981,27 +4988,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5032,27 +5039,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5083,27 +5090,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5134,27 +5141,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5185,27 +5192,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5235,27 +5242,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5286,27 +5293,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5337,27 +5344,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5388,27 +5395,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5439,27 +5446,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5496,33 +5503,33 @@
       <c r="D65" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36" t="s">
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36" t="s">
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="38" t="s">
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5558,35 +5565,35 @@
       <c r="D66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36" t="s">
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36" t="s">
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="38" t="s">
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5623,37 +5630,37 @@
       <c r="D67" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36" t="s">
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36" t="s">
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36" t="s">
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36" t="s">
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5682,27 +5689,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5724,27 +5731,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5774,27 +5781,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5826,27 +5833,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5880,27 +5887,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5932,27 +5939,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -5984,27 +5991,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6036,27 +6043,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6088,27 +6095,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6140,27 +6147,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6192,27 +6199,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="37"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6244,27 +6251,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6296,27 +6303,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6348,27 +6355,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6400,27 +6407,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6452,27 +6459,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6504,27 +6511,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6556,27 +6563,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6608,27 +6615,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6660,27 +6667,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6712,27 +6719,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6764,27 +6771,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6816,27 +6823,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6868,27 +6875,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6920,27 +6927,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -6972,27 +6979,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="36"/>
-      <c r="Y93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="37"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7024,27 +7031,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7076,27 +7083,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7128,27 +7135,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7180,27 +7187,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="36"/>
-      <c r="Y97" s="36"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7232,27 +7239,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="36"/>
-      <c r="V98" s="36"/>
-      <c r="W98" s="36"/>
-      <c r="X98" s="36"/>
-      <c r="Y98" s="36"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7284,27 +7291,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="36"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="36"/>
-      <c r="Y99" s="36"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="37"/>
+      <c r="Y99" s="37"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7336,27 +7343,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="36"/>
-      <c r="V100" s="36"/>
-      <c r="W100" s="36"/>
-      <c r="X100" s="36"/>
-      <c r="Y100" s="36"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="37"/>
+      <c r="Y100" s="37"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7388,27 +7395,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="36"/>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
-      <c r="X101" s="36"/>
-      <c r="Y101" s="36"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="37"/>
+      <c r="Y101" s="37"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7644,10 +7651,10 @@
       <c r="B131" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C131" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="D131" s="37"/>
+      <c r="D131" s="38"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9234,17 +9241,545 @@
     </row>
   </sheetData>
   <mergeCells count="574">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="T100:Y100"/>
+    <mergeCell ref="T101:Y101"/>
+    <mergeCell ref="AB31:AU31"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="T91:Y91"/>
+    <mergeCell ref="T92:Y92"/>
+    <mergeCell ref="T93:Y93"/>
+    <mergeCell ref="T94:Y94"/>
+    <mergeCell ref="T95:Y95"/>
+    <mergeCell ref="T96:Y96"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T98:Y98"/>
+    <mergeCell ref="T99:Y99"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="T84:Y84"/>
+    <mergeCell ref="T85:Y85"/>
+    <mergeCell ref="T86:Y86"/>
+    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AG26:AH26"/>
@@ -9269,545 +9804,17 @@
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="Y28:Z28"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="T100:Y100"/>
-    <mergeCell ref="T101:Y101"/>
-    <mergeCell ref="AB31:AU31"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="T91:Y91"/>
-    <mergeCell ref="T92:Y92"/>
-    <mergeCell ref="T93:Y93"/>
-    <mergeCell ref="T94:Y94"/>
-    <mergeCell ref="T95:Y95"/>
-    <mergeCell ref="T96:Y96"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T98:Y98"/>
-    <mergeCell ref="T99:Y99"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="T84:Y84"/>
-    <mergeCell ref="T85:Y85"/>
-    <mergeCell ref="T86:Y86"/>
-    <mergeCell ref="T87:Y87"/>
-    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5075D735-3AD7-44A7-B5E2-7522A87A55F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B024C83-01A9-48D6-9036-B70377796C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,30 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>철갑기사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도박꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성직자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피의 귀족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,6 +1317,34 @@
   </si>
   <si>
     <t>상점에서 스킬 업글을 할 수 있음 =&gt; 스킬 코스트를 1 줄일 수 있음 (1강만 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑기사 Baron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성직자 Riri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유적 탐험가 Arisu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사 Mirinae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의 귀족 Soamir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">옴 Narin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도박꾼 Cinavro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2071,21 +2071,21 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
@@ -2100,13 +2100,13 @@
         <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2138,47 +2138,47 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <f>2^(K7-1)</f>
-        <v>1</v>
+        <f>2^(K7)</f>
+        <v>2</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:T8" si="0">2^(L7-1)</f>
-        <v>1</v>
+        <f t="shared" ref="L8:T8" si="0">2^(L7)</f>
+        <v>2</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
@@ -2186,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M9" s="45"/>
       <c r="N9" s="45"/>
@@ -2196,7 +2196,7 @@
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="U9" s="45"/>
       <c r="V9" s="45"/>
@@ -2206,7 +2206,7 @@
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
@@ -2216,7 +2216,7 @@
       <c r="AH9" s="45"/>
       <c r="AI9" s="45"/>
       <c r="AL9" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
@@ -2264,13 +2264,13 @@
       <c r="AH10" s="40"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AK10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="AL10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
@@ -2278,25 +2278,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38" t="s">
@@ -2366,12 +2366,12 @@
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="B12" s="6">
         <v>150</v>
@@ -2390,21 +2390,21 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
@@ -2426,16 +2426,16 @@
       <c r="AH12" s="37"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AK12" s="33"/>
       <c r="AL12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="B13" s="6">
         <v>100</v>
@@ -2453,60 +2453,60 @@
         <v>10</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AG13" s="37"/>
       <c r="AH13" s="37"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="B14" s="6">
         <v>80</v>
@@ -2525,21 +2525,21 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M14" s="39"/>
       <c r="N14" s="39"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
@@ -2557,19 +2557,19 @@
       <c r="AD14" s="37"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AG14" s="37"/>
       <c r="AH14" s="37"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="B15" s="6">
         <v>50</v>
@@ -2588,55 +2588,55 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M15" s="39"/>
       <c r="N15" s="39"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AC15" s="37"/>
       <c r="AD15" s="37"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AG15" s="37"/>
       <c r="AH15" s="37"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="B16" s="6">
         <v>60</v>
@@ -2654,66 +2654,66 @@
         <v>10</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AC16" s="37"/>
       <c r="AD16" s="37"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AG16" s="37"/>
       <c r="AH16" s="37"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="B17" s="6">
         <v>80</v>
       </c>
       <c r="C17" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
@@ -2722,64 +2722,64 @@
         <v>4</v>
       </c>
       <c r="F17" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG17" s="37"/>
       <c r="AH17" s="37"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AK17" s="6"/>
       <c r="AL17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="B18" s="6">
         <v>80</v>
@@ -2798,11 +2798,11 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="37" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="5"/>
@@ -2830,7 +2830,7 @@
       <c r="AH18" s="37"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AK18" s="6"/>
     </row>
@@ -3224,28 +3224,28 @@
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
       <c r="AX28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX29" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX30" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="D31" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="T31" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AB31" s="38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC31" s="38"/>
       <c r="AD31" s="38"/>
@@ -3267,7 +3267,7 @@
       <c r="AT31" s="38"/>
       <c r="AU31" s="38"/>
       <c r="AX31" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:65" ht="17.5" x14ac:dyDescent="0.45">
@@ -3275,41 +3275,41 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
       <c r="K32" s="38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
       <c r="N32" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="38" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="U32" s="38"/>
       <c r="V32" s="38"/>
@@ -3317,10 +3317,10 @@
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
       <c r="Z32" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AB32" s="1">
         <v>5</v>
@@ -3383,40 +3383,40 @@
         <v>100</v>
       </c>
       <c r="AX32" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="BA32" s="23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="BD32" s="27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="BG32" s="29" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="BJ32" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="BM32" s="30" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -3430,7 +3430,7 @@
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
       <c r="T33" s="44" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
@@ -3478,33 +3478,33 @@
       <c r="AT33" s="19"/>
       <c r="AU33" s="19"/>
       <c r="AV33" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AW33" s="26"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
@@ -3515,7 +3515,7 @@
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
       <c r="T34" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
@@ -3565,38 +3565,38 @@
       <c r="AT34" s="19"/>
       <c r="AU34" s="19"/>
       <c r="AV34" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AW34" s="26"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="37" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
@@ -3604,7 +3604,7 @@
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
       <c r="T35" s="44" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
@@ -3648,33 +3648,33 @@
       <c r="AT35" s="19"/>
       <c r="AU35" s="19"/>
       <c r="AV35" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AW35" s="26"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A36" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L36" s="37"/>
       <c r="M36" s="37"/>
@@ -3685,7 +3685,7 @@
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
       <c r="T36" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
@@ -3735,46 +3735,46 @@
       <c r="AT36" s="19"/>
       <c r="AU36" s="19"/>
       <c r="AV36" s="25" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AW36" s="26"/>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
       <c r="N37" s="37" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
       <c r="T37" s="44" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
@@ -3811,36 +3811,36 @@
       <c r="AT37" s="19"/>
       <c r="AU37" s="19"/>
       <c r="AV37" s="25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AW37" s="26"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
@@ -3848,7 +3848,7 @@
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
       <c r="T38" s="44" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
@@ -3886,31 +3886,31 @@
       <c r="AT38" s="19"/>
       <c r="AU38" s="19"/>
       <c r="AV38" s="25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AW38" s="26"/>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
@@ -3921,7 +3921,7 @@
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
       <c r="T39" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
@@ -3971,31 +3971,31 @@
       <c r="AT39" s="19"/>
       <c r="AU39" s="19"/>
       <c r="AV39" s="25" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AW39" s="26"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
@@ -4006,7 +4006,7 @@
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
       <c r="T40" s="44" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
@@ -4039,33 +4039,33 @@
       <c r="AT40" s="19"/>
       <c r="AU40" s="19"/>
       <c r="AV40" s="25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AW40" s="26"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="37" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
@@ -4076,7 +4076,7 @@
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
       <c r="T41" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
@@ -4115,33 +4115,33 @@
       <c r="AT41" s="19"/>
       <c r="AU41" s="19"/>
       <c r="AV41" s="25" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AW41" s="26"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="37" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="37" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
@@ -4152,7 +4152,7 @@
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
       <c r="T42" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
@@ -4202,27 +4202,27 @@
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="37" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
@@ -4233,7 +4233,7 @@
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
       <c r="T43" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
@@ -4282,27 +4282,27 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="37" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -4313,7 +4313,7 @@
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
       <c r="T44" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
@@ -4362,30 +4362,30 @@
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="37" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="41" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L45" s="42"/>
       <c r="M45" s="43"/>
       <c r="N45" s="41" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="O45" s="42"/>
       <c r="P45" s="43"/>
@@ -4393,7 +4393,7 @@
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
       <c r="T45" s="37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A46" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
@@ -4451,22 +4451,22 @@
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="37" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
       <c r="N46" s="37" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O46" s="37"/>
       <c r="P46" s="37"/>
@@ -4474,7 +4474,7 @@
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
       <c r="T46" s="37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
@@ -4522,22 +4522,22 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="37" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
       <c r="K47" s="37" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
       <c r="N47" s="41" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O47" s="42"/>
       <c r="P47" s="43"/>
@@ -4545,7 +4545,7 @@
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
       <c r="T47" s="37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
@@ -4593,32 +4593,32 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="37" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="37" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
       <c r="N48" s="37" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O48" s="37"/>
       <c r="P48" s="37"/>
       <c r="Q48" s="37" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
       <c r="T48" s="37" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -4668,32 +4668,32 @@
         <v>10</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="37" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
       <c r="N49" s="37" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="O49" s="37"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="37" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
       <c r="T49" s="44" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
@@ -4701,7 +4701,7 @@
       <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AA49" s="6"/>
       <c r="AB49" s="19"/>
@@ -4917,7 +4917,7 @@
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
+      <c r="AJ53" s="27"/>
       <c r="AK53" s="19"/>
       <c r="AL53" s="19"/>
       <c r="AM53" s="19"/>
@@ -5494,25 +5494,25 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
       <c r="K65" s="37" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
@@ -5523,7 +5523,7 @@
       <c r="R65" s="37"/>
       <c r="S65" s="37"/>
       <c r="T65" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U65" s="37"/>
       <c r="V65" s="37"/>
@@ -5556,27 +5556,27 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A66" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
       <c r="K66" s="37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
@@ -5587,7 +5587,7 @@
       <c r="R66" s="37"/>
       <c r="S66" s="37"/>
       <c r="T66" s="44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
@@ -5621,32 +5621,32 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
       <c r="K67" s="37" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L67" s="37"/>
       <c r="M67" s="37"/>
       <c r="N67" s="37" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O67" s="37"/>
       <c r="P67" s="37"/>
@@ -5654,7 +5654,7 @@
       <c r="R67" s="37"/>
       <c r="S67" s="37"/>
       <c r="T67" s="37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="U67" s="37"/>
       <c r="V67" s="37"/>
@@ -5877,7 +5877,7 @@
       <c r="AT71" s="19"/>
       <c r="AU71" s="19"/>
       <c r="AV71" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AW71" s="26"/>
       <c r="AX71" s="26"/>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7480,167 +7480,167 @@
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B130" s="14" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C130" s="14"/>
     </row>
@@ -7649,10 +7649,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D131" s="38"/>
       <c r="E131" s="1"/>
@@ -7675,13 +7675,13 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B132" s="6">
         <v>2</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -7704,13 +7704,13 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B133" s="6">
         <v>2</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -7733,13 +7733,13 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B134" s="6">
         <v>1</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
@@ -7762,13 +7762,13 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B135" s="6">
         <v>3</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
@@ -7791,13 +7791,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B136" s="6">
         <v>3</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
@@ -7820,13 +7820,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B137" s="6">
         <v>3</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
@@ -7849,13 +7849,13 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B138" s="6">
         <v>3</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
@@ -7878,13 +7878,13 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B139" s="6">
         <v>2</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
@@ -7907,13 +7907,13 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B140" s="6">
         <v>2</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
@@ -7936,13 +7936,13 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B141" s="6">
         <v>2</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
@@ -7965,13 +7965,13 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B142" s="6">
         <v>1</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
@@ -7994,13 +7994,13 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B143" s="6">
         <v>1</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
@@ -8023,13 +8023,13 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B144" s="6">
         <v>2</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
@@ -8052,13 +8052,13 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B145" s="6">
         <v>2</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
@@ -8081,13 +8081,13 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B146" s="6">
         <v>2</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
@@ -8110,13 +8110,13 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B147" s="6">
         <v>1</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
@@ -8139,13 +8139,13 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B148" s="6">
         <v>2</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -8168,13 +8168,13 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B149" s="6">
         <v>2</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
@@ -8197,13 +8197,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B150" s="6">
         <v>2</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
@@ -8226,13 +8226,13 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B151" s="6">
         <v>2</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
@@ -8255,13 +8255,13 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B152" s="6">
         <v>2</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
@@ -8284,13 +8284,13 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B153" s="6">
         <v>2</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
@@ -8313,13 +8313,13 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B154" s="6">
         <v>2</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
@@ -8342,13 +8342,13 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B155" s="6">
         <v>2</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B024C83-01A9-48D6-9036-B70377796C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E67E8E-C969-4E1B-A670-A41827B5439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1312,10 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일격필살 - 필살기. 공격타일이 1개 이상일때 사용가능하다. (A+S)*10 데미지를 준다. 해당 적에게 의지 상실을 부여한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점에서 스킬 업글을 할 수 있음 =&gt; 스킬 코스트를 1 줄일 수 있음 (1강만 가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1345,6 +1341,10 @@
   </si>
   <si>
     <t>도박꾼 Cinavro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excaliber - Use up all attack tiles in the board and gives 10 times the amount of damage to one enemy and apply 'broken will' for 1 turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1731,11 +1731,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1743,11 +1740,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1758,11 +1752,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2185,84 +2185,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45" t="s">
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
       <c r="AL9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="L10" s="40" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40" t="s">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40" t="s">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40" t="s">
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40" t="s">
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
       <c r="AJ10" s="32" t="s">
         <v>128</v>
       </c>
@@ -2295,71 +2295,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="37"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="38"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="38" t="s">
+      <c r="Y11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="38"/>
+      <c r="Z11" s="37"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="38" t="s">
+      <c r="AC11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="38"/>
+      <c r="AD11" s="37"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="38" t="s">
+      <c r="AG11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="38"/>
+      <c r="AH11" s="37"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2371,59 +2371,59 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" s="6">
         <v>150</v>
       </c>
       <c r="C12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8">
         <v>8</v>
       </c>
       <c r="F12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33" t="s">
         <v>129</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" s="6">
         <v>100</v>
@@ -2444,60 +2444,60 @@
         <v>4</v>
       </c>
       <c r="D13" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <v>6</v>
       </c>
       <c r="F13" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37" t="s">
+      <c r="I13" s="45"/>
+      <c r="J13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6" t="s">
         <v>130</v>
@@ -2506,61 +2506,61 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C14" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>132</v>
@@ -2569,65 +2569,65 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
       </c>
       <c r="D15" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6" t="s">
         <v>130</v>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>90</v>
@@ -2667,38 +2667,38 @@
       <c r="L16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>132</v>
@@ -2707,67 +2707,67 @@
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>4</v>
       </c>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
+        <v>327</v>
+      </c>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="6" t="s">
         <v>130</v>
@@ -2779,55 +2779,55 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6">
         <v>5</v>
       </c>
       <c r="F18" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6" t="s">
         <v>129</v>
@@ -2842,33 +2842,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2881,33 +2881,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2920,33 +2920,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2959,33 +2959,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -2998,33 +2998,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3037,33 +3037,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3076,33 +3076,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3115,33 +3115,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3154,33 +3154,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3193,33 +3193,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3244,28 +3244,28 @@
       <c r="T31" t="s">
         <v>269</v>
       </c>
-      <c r="AB31" s="38" t="s">
+      <c r="AB31" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="38"/>
-      <c r="AU31" s="38"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
       <c r="AX31" t="s">
         <v>193</v>
       </c>
@@ -3283,39 +3283,39 @@
       <c r="D32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38" t="s">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38" t="s">
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38" t="s">
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38" t="s">
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38" t="s">
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
       <c r="Z32" s="1" t="s">
         <v>135</v>
       </c>
@@ -3412,31 +3412,31 @@
         <v>284</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="44" t="s">
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3493,35 +3493,35 @@
         <v>289</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37" t="s">
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="44" t="s">
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3580,37 +3580,37 @@
         <v>291</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37" t="s">
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37" t="s">
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37" t="s">
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="44" t="s">
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3663,35 +3663,35 @@
         <v>290</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37" t="s">
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="44" t="s">
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3750,37 +3750,37 @@
         <v>292</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37" t="s">
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37" t="s">
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37" t="s">
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="44" t="s">
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3826,35 +3826,35 @@
         <v>284</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37" t="s">
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37" t="s">
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37" t="s">
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="44" t="s">
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3901,33 +3901,33 @@
         <v>296</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37" t="s">
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37" t="s">
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="44" t="s">
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -3986,33 +3986,33 @@
         <v>295</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37" t="s">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37" t="s">
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="44" t="s">
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4054,35 +4054,35 @@
         <v>297</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37" t="s">
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="44" t="s">
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4130,35 +4130,35 @@
         <v>301</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37" t="s">
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37" t="s">
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="44" t="s">
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4211,35 +4211,35 @@
         <v>292</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37" t="s">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="44" t="s">
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4291,35 +4291,35 @@
         <v>292</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37" t="s">
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37" t="s">
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="44" t="s">
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4369,37 +4369,37 @@
         <v>299</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37" t="s">
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="41" t="s">
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="L45" s="42"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="41" t="s">
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="O45" s="42"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37" t="s">
+      <c r="O45" s="40"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4450,37 +4450,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37" t="s">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37" t="s">
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37" t="s">
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37" t="s">
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4521,37 +4521,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37" t="s">
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37" t="s">
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="41" t="s">
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="O47" s="42"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37" t="s">
+      <c r="O47" s="40"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4592,39 +4592,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37" t="s">
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37" t="s">
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37" t="s">
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37" t="s">
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37" t="s">
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4667,39 +4667,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37" t="s">
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37" t="s">
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37" t="s">
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37" t="s">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="44" t="s">
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
       <c r="Z49" s="6" t="s">
         <v>282</v>
       </c>
@@ -4733,27 +4733,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4784,27 +4784,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4835,27 +4835,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4886,27 +4886,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4937,27 +4937,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -4988,27 +4988,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5039,27 +5039,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5090,27 +5090,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5141,27 +5141,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5192,27 +5192,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5242,27 +5242,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5293,27 +5293,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5344,27 +5344,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5395,27 +5395,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5446,27 +5446,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5503,33 +5503,33 @@
       <c r="D65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37" t="s">
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37" t="s">
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="44" t="s">
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5565,35 +5565,35 @@
       <c r="D66" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37" t="s">
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37" t="s">
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="44" t="s">
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5630,37 +5630,37 @@
       <c r="D67" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37" t="s">
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37" t="s">
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37" t="s">
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37" t="s">
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5689,27 +5689,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5731,27 +5731,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5781,27 +5781,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5833,27 +5833,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5887,27 +5887,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5939,27 +5939,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -5991,27 +5991,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6043,27 +6043,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
+      <c r="V75" s="36"/>
+      <c r="W75" s="36"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="36"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6095,27 +6095,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="36"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6147,27 +6147,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6199,27 +6199,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6251,27 +6251,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="37"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6303,27 +6303,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6355,27 +6355,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6407,27 +6407,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="37"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="36"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6459,27 +6459,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6511,27 +6511,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6563,27 +6563,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6615,27 +6615,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6667,27 +6667,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6719,27 +6719,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="36"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6771,27 +6771,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6823,27 +6823,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6875,27 +6875,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6927,27 +6927,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="37"/>
-      <c r="Y92" s="37"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -6979,27 +6979,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="37"/>
-      <c r="X93" s="37"/>
-      <c r="Y93" s="37"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="36"/>
+      <c r="Y93" s="36"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7031,27 +7031,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="37"/>
-      <c r="Y94" s="37"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7083,27 +7083,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="37"/>
-      <c r="X95" s="37"/>
-      <c r="Y95" s="37"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="36"/>
+      <c r="V95" s="36"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="36"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7135,27 +7135,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7187,27 +7187,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="37"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="37"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="37"/>
-      <c r="X97" s="37"/>
-      <c r="Y97" s="37"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="36"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7239,27 +7239,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7291,27 +7291,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="37"/>
-      <c r="X99" s="37"/>
-      <c r="Y99" s="37"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7343,27 +7343,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="37"/>
-      <c r="T100" s="37"/>
-      <c r="U100" s="37"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="37"/>
-      <c r="X100" s="37"/>
-      <c r="Y100" s="37"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7395,27 +7395,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7651,10 +7651,10 @@
       <c r="B131" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="D131" s="38"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9241,6 +9241,556 @@
     </row>
   </sheetData>
   <mergeCells count="574">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
     <mergeCell ref="L9:S9"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="AB9:AI9"/>
@@ -9265,556 +9815,6 @@
     <mergeCell ref="T86:Y86"/>
     <mergeCell ref="T87:Y87"/>
     <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E67E8E-C969-4E1B-A670-A41827B5439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB6A1F2-F644-4D74-86A1-879D3D47144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="332">
   <si>
     <t>Mobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1345,6 +1345,22 @@
   </si>
   <si>
     <t>Excaliber - Use up all attack tiles in the board and gives 10 times the amount of damage to one enemy and apply 'broken will' for 1 turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20% 이하일때 공격력이 2배가 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 50% 이하일때 얻는방어도가 두배가 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 모두에게 방어도를 10/15/20 준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도를 10/15/20 얻는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1731,8 +1747,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1740,8 +1759,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1752,17 +1774,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2047,7 +2063,7 @@
   <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J18" sqref="J18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2185,84 +2201,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35" t="s">
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
-      <c r="AI9" s="35"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
       <c r="AL9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="L10" s="42" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="L10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42" t="s">
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42" t="s">
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42" t="s">
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
       <c r="AJ10" s="32" t="s">
         <v>128</v>
       </c>
@@ -2295,71 +2311,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="37"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="U11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="37"/>
+      <c r="V11" s="38"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="37" t="s">
+      <c r="Y11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="37"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="37" t="s">
+      <c r="AC11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="37"/>
+      <c r="AD11" s="38"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="37" t="s">
+      <c r="AG11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="37"/>
+      <c r="AH11" s="38"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2389,41 +2405,41 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="36"/>
+      <c r="J12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33" t="s">
         <v>129</v>
@@ -2455,49 +2471,49 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="36" t="s">
+      <c r="I13" s="36"/>
+      <c r="J13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6" t="s">
         <v>130</v>
@@ -2524,43 +2540,43 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="36" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>132</v>
@@ -2587,47 +2603,47 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6" t="s">
         <v>130</v>
@@ -2660,45 +2676,45 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>132</v>
@@ -2725,49 +2741,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="36" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="12"/>
       <c r="P17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="6" t="s">
         <v>130</v>
@@ -2797,37 +2813,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="36" t="s">
+      <c r="I18" s="36"/>
+      <c r="J18" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6" t="s">
         <v>129</v>
@@ -2842,33 +2858,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2881,33 +2897,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2920,33 +2936,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2959,33 +2975,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -2998,33 +3014,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3037,33 +3053,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3076,33 +3092,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3115,33 +3131,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3154,33 +3170,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3193,33 +3209,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3244,28 +3260,28 @@
       <c r="T31" t="s">
         <v>269</v>
       </c>
-      <c r="AB31" s="37" t="s">
+      <c r="AB31" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
       <c r="AX31" t="s">
         <v>193</v>
       </c>
@@ -3283,39 +3299,39 @@
       <c r="D32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37" t="s">
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37" t="s">
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37" t="s">
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37" t="s">
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
       <c r="Z32" s="1" t="s">
         <v>135</v>
       </c>
@@ -3412,31 +3428,31 @@
         <v>284</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="38" t="s">
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3493,35 +3509,35 @@
         <v>289</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36" t="s">
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="38" t="s">
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3580,37 +3596,37 @@
         <v>291</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36" t="s">
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36" t="s">
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="38" t="s">
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3663,35 +3679,35 @@
         <v>290</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36" t="s">
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36" t="s">
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="38" t="s">
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3750,37 +3766,37 @@
         <v>292</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36" t="s">
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36" t="s">
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36" t="s">
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="38" t="s">
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3826,35 +3842,35 @@
         <v>284</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36" t="s">
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36" t="s">
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="38" t="s">
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3901,33 +3917,33 @@
         <v>296</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36" t="s">
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36" t="s">
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="38" t="s">
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -3986,33 +4002,33 @@
         <v>295</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36" t="s">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36" t="s">
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="38" t="s">
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4054,35 +4070,35 @@
         <v>297</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36" t="s">
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="38" t="s">
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4130,35 +4146,35 @@
         <v>301</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36" t="s">
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36" t="s">
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="38" t="s">
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4211,35 +4227,35 @@
         <v>292</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36" t="s">
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36" t="s">
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="38" t="s">
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4291,35 +4307,35 @@
         <v>292</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36" t="s">
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36" t="s">
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="38" t="s">
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4369,37 +4385,37 @@
         <v>299</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36" t="s">
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="39" t="s">
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="39" t="s">
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="O45" s="40"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36" t="s">
+      <c r="O45" s="42"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4450,37 +4466,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36" t="s">
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36" t="s">
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36" t="s">
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36" t="s">
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4521,37 +4537,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36" t="s">
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36" t="s">
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="39" t="s">
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="O47" s="40"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36" t="s">
+      <c r="O47" s="42"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4592,39 +4608,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36" t="s">
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36" t="s">
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36" t="s">
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36" t="s">
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4667,39 +4683,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36" t="s">
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36" t="s">
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36" t="s">
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36" t="s">
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="38" t="s">
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
       <c r="Z49" s="6" t="s">
         <v>282</v>
       </c>
@@ -4733,27 +4749,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4784,27 +4800,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
-      <c r="Y51" s="36"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4835,27 +4851,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
-      <c r="Y52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4886,27 +4902,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4937,27 +4953,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -4988,27 +5004,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5039,27 +5055,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5090,27 +5106,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5141,27 +5157,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5192,27 +5208,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5242,27 +5258,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5293,27 +5309,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5344,27 +5360,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5395,27 +5411,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5446,27 +5462,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5503,33 +5519,33 @@
       <c r="D65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36" t="s">
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36" t="s">
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="38" t="s">
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U65" s="36"/>
-      <c r="V65" s="36"/>
-      <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
-      <c r="Y65" s="36"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5565,35 +5581,35 @@
       <c r="D66" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36" t="s">
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36" t="s">
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="38" t="s">
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5630,37 +5646,37 @@
       <c r="D67" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36" t="s">
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36" t="s">
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36" t="s">
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36" t="s">
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5689,27 +5705,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5731,27 +5747,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5781,27 +5797,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5833,27 +5849,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5887,27 +5903,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5939,27 +5955,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -5991,27 +6007,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6043,27 +6059,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
-      <c r="V75" s="36"/>
-      <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
-      <c r="Y75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6095,27 +6111,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6147,27 +6163,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6199,27 +6215,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="37"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6251,27 +6267,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6303,27 +6319,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6355,27 +6371,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6407,27 +6423,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6459,27 +6475,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6511,27 +6527,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6563,27 +6579,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6615,27 +6631,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6667,27 +6683,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6719,27 +6735,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6771,27 +6787,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6823,27 +6839,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6875,27 +6891,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6927,27 +6943,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="36"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -6979,27 +6995,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
-      <c r="W93" s="36"/>
-      <c r="X93" s="36"/>
-      <c r="Y93" s="36"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="37"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7031,27 +7047,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7083,27 +7099,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7135,27 +7151,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7187,27 +7203,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="36"/>
-      <c r="Y97" s="36"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7239,27 +7255,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="36"/>
-      <c r="V98" s="36"/>
-      <c r="W98" s="36"/>
-      <c r="X98" s="36"/>
-      <c r="Y98" s="36"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7291,27 +7307,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="36"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="36"/>
-      <c r="Y99" s="36"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="37"/>
+      <c r="Y99" s="37"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7343,27 +7359,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="36"/>
-      <c r="V100" s="36"/>
-      <c r="W100" s="36"/>
-      <c r="X100" s="36"/>
-      <c r="Y100" s="36"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="37"/>
+      <c r="Y100" s="37"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7395,27 +7411,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="36"/>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
-      <c r="X101" s="36"/>
-      <c r="Y101" s="36"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="37"/>
+      <c r="Y101" s="37"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7651,10 +7667,10 @@
       <c r="B131" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C131" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D131" s="37"/>
+      <c r="D131" s="38"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -8372,7 +8388,9 @@
     <row r="156" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
-      <c r="C156" s="25"/>
+      <c r="C156" s="25" t="s">
+        <v>328</v>
+      </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
@@ -8395,7 +8413,9 @@
     <row r="157" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
-      <c r="C157" s="25"/>
+      <c r="C157" s="25" t="s">
+        <v>329</v>
+      </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
@@ -9240,18 +9260,547 @@
       <c r="U193" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="574">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+  <mergeCells count="575">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="T100:Y100"/>
+    <mergeCell ref="T101:Y101"/>
+    <mergeCell ref="AB31:AU31"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="T91:Y91"/>
+    <mergeCell ref="T92:Y92"/>
+    <mergeCell ref="T93:Y93"/>
+    <mergeCell ref="T94:Y94"/>
+    <mergeCell ref="T95:Y95"/>
+    <mergeCell ref="T96:Y96"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T98:Y98"/>
+    <mergeCell ref="T99:Y99"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="T84:Y84"/>
+    <mergeCell ref="T85:Y85"/>
+    <mergeCell ref="T86:Y86"/>
+    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AG26:AH26"/>
@@ -9276,545 +9825,17 @@
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="Y28:Z28"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="T100:Y100"/>
-    <mergeCell ref="T101:Y101"/>
-    <mergeCell ref="AB31:AU31"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="T91:Y91"/>
-    <mergeCell ref="T92:Y92"/>
-    <mergeCell ref="T93:Y93"/>
-    <mergeCell ref="T94:Y94"/>
-    <mergeCell ref="T95:Y95"/>
-    <mergeCell ref="T96:Y96"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T98:Y98"/>
-    <mergeCell ref="T99:Y99"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="T84:Y84"/>
-    <mergeCell ref="T85:Y85"/>
-    <mergeCell ref="T86:Y86"/>
-    <mergeCell ref="T87:Y87"/>
-    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB6A1F2-F644-4D74-86A1-879D3D47144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B169B2CB-A2DC-47D2-8F1C-E4986211D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="335">
   <si>
     <t>Mobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,26 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정권 - 보완. 한 적에게 P(A)*S+P(R) 만큼 데이지를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호신술 - 전환공격. 회복 및 방어가 공격으로 전환된다: S*P(R+D)만큼 피해를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기선제압 - 상태이상. S명의 적에게 취약을 부여하고 D*5만큼 상대의 방어도를 제거한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본기 - 보완. 칼날 개수가 3개 이하일때 사용 가능: S*(A)*5만큼 피해를 준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼날 폭풍 - 광역공격. (S+1)개의 대상에게 P(A) 만큼 피해를 준다 (랜덤 타깃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카르마 칼리마 - 보완. P(K+1+A) 세기로 공격한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뭉치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,10 +712,6 @@
     <t>(조합되어) 50% 확률로 한 종류만 소환 / 40%확률로 두 종류 소환 / 10%확률로 세 종류 소환</t>
   </si>
   <si>
-    <t>가시: 받은 데미지의 절반을 반사한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">매 20층마다 보이드 틈새에서 비행하러 오는 캐리어 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>헤일로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보이드 조율자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1만 시전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 -&gt; 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1361,6 +1321,58 @@
   </si>
   <si>
     <t>방어도를 10/15/20 얻는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martial art - Attack one target with 5*A damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head start - Apply vulnerability to S+1 targets  (3 turns) and removes 5*D defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword storm - Attack all targets with A*5 damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self defence - For all the incoming attacks next turn, absorb 5*S*(R+D) damage and reflect each damage back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guard attack - All defence tiles become attack tiles on current board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭉치 Mob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤일로 HALO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/32/64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신에게 강화를 부여한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3턴간 주는 데미지가 2배 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가시: 받은 데미지의 절반을 반사한다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,6 +1546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,7 +1661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1748,10 +1766,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1759,25 +1780,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2062,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2096,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="W5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
@@ -2201,92 +2225,92 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
+      <c r="L9" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
       <c r="AL9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="L10" s="40" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40" t="s">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40" t="s">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40" t="s">
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40" t="s">
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
       <c r="AJ10" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AK10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="AL10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
@@ -2311,83 +2335,83 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="39"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="38"/>
+      <c r="V11" s="39"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="38" t="s">
+      <c r="Y11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="38"/>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="38" t="s">
+      <c r="AC11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="38"/>
+      <c r="AD11" s="39"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="38" t="s">
+      <c r="AG11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="38"/>
+      <c r="AH11" s="39"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B12" s="6">
         <v>150</v>
@@ -2405,53 +2429,51 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
       <c r="AI12" s="12"/>
-      <c r="AJ12" s="33" t="s">
-        <v>129</v>
-      </c>
+      <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B13" s="6">
         <v>100</v>
@@ -2471,58 +2493,56 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37" t="s">
+      <c r="I13" s="45"/>
+      <c r="J13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
+        <v>100</v>
+      </c>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
+        <v>103</v>
+      </c>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
       <c r="AI13" s="12"/>
-      <c r="AJ13" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B14" s="6">
         <v>100</v>
@@ -2540,52 +2560,52 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+        <v>115</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+        <v>114</v>
+      </c>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B15" s="6">
         <v>80</v>
@@ -2603,56 +2623,54 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+        <v>106</v>
+      </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+        <v>107</v>
+      </c>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+        <v>105</v>
+      </c>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+        <v>108</v>
+      </c>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
+        <v>233</v>
+      </c>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
       <c r="AI15" s="12"/>
-      <c r="AJ15" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B16" s="6">
         <v>100</v>
@@ -2676,54 +2694,54 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="43"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+        <v>96</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+        <v>97</v>
+      </c>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+        <v>98</v>
+      </c>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
+        <v>99</v>
+      </c>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B17" s="6">
         <v>100</v>
@@ -2741,61 +2759,61 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37" t="s">
+      <c r="I17" s="45"/>
+      <c r="J17" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+        <v>322</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="P17" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+        <v>324</v>
+      </c>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+        <v>325</v>
+      </c>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
+        <v>326</v>
+      </c>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
+        <v>317</v>
+      </c>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="6" t="s">
-        <v>130</v>
+      <c r="AJ17" s="47" t="s">
+        <v>125</v>
       </c>
       <c r="AK17" s="6"/>
       <c r="AL17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B18" s="6">
         <v>100</v>
@@ -2813,41 +2831,39 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="37"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="38"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
       <c r="AI18" s="12"/>
-      <c r="AJ18" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.45">
@@ -2858,33 +2874,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2897,33 +2913,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2936,33 +2952,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2975,33 +2991,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3014,33 +3030,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3053,33 +3069,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3092,33 +3108,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3131,33 +3147,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3170,33 +3186,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3209,81 +3225,81 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
       <c r="AX28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX29" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="AX30" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="T31" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB31" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="38"/>
-      <c r="AU31" s="38"/>
+        <v>259</v>
+      </c>
+      <c r="AB31" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
       <c r="AX31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:65" ht="17.5" x14ac:dyDescent="0.45">
@@ -3291,52 +3307,52 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
       <c r="Z32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AB32" s="1">
         <v>5</v>
@@ -3399,60 +3415,64 @@
         <v>100</v>
       </c>
       <c r="AX32" s="16" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="BA32" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="BD32" s="27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="BG32" s="29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="BJ32" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="BM32" s="30" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
-        <v>139</v>
+      <c r="A33" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3494,50 +3514,50 @@
       <c r="AT33" s="19"/>
       <c r="AU33" s="19"/>
       <c r="AV33" s="25" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AW33" s="26"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A34" s="15" t="s">
-        <v>142</v>
+      <c r="A34" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
+      <c r="E34" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3581,52 +3601,52 @@
       <c r="AT34" s="19"/>
       <c r="AU34" s="19"/>
       <c r="AV34" s="25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AW34" s="26"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A35" s="15" t="s">
-        <v>143</v>
+      <c r="A35" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
+      <c r="E35" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3664,50 +3684,50 @@
       <c r="AT35" s="19"/>
       <c r="AU35" s="19"/>
       <c r="AV35" s="25" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AW35" s="26"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A36" s="15" t="s">
-        <v>144</v>
+      <c r="A36" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
+      <c r="E36" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3751,52 +3771,52 @@
       <c r="AT36" s="19"/>
       <c r="AU36" s="19"/>
       <c r="AV36" s="25" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AW36" s="26"/>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A37" s="15" t="s">
-        <v>145</v>
+      <c r="A37" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="44" t="s">
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3827,50 +3847,50 @@
       <c r="AT37" s="19"/>
       <c r="AU37" s="19"/>
       <c r="AV37" s="25" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AW37" s="26"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A38" s="15" t="s">
-        <v>146</v>
+      <c r="A38" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3902,48 +3922,48 @@
       <c r="AT38" s="19"/>
       <c r="AU38" s="19"/>
       <c r="AV38" s="25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AW38" s="26"/>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A39" s="15" t="s">
-        <v>147</v>
+      <c r="A39" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -3987,48 +4007,48 @@
       <c r="AT39" s="19"/>
       <c r="AU39" s="19"/>
       <c r="AV39" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AW39" s="26"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A40" s="15" t="s">
-        <v>148</v>
+      <c r="A40" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4055,50 +4075,50 @@
       <c r="AT40" s="19"/>
       <c r="AU40" s="19"/>
       <c r="AV40" s="25" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AW40" s="26"/>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A41" s="15" t="s">
-        <v>149</v>
+      <c r="A41" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
+      <c r="E41" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4131,50 +4151,50 @@
       <c r="AT41" s="19"/>
       <c r="AU41" s="19"/>
       <c r="AV41" s="25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AW41" s="26"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A42" s="15" t="s">
-        <v>150</v>
+      <c r="A42" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
+      <c r="E42" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4217,45 +4237,45 @@
       <c r="AW42" s="26"/>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A43" s="15" t="s">
-        <v>151</v>
+      <c r="A43" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
+      <c r="E43" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4297,45 +4317,45 @@
       <c r="AW43" s="26"/>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A44" s="15" t="s">
-        <v>152</v>
+      <c r="A44" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4377,45 +4397,45 @@
       <c r="AW44" s="26"/>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A45" s="15" t="s">
-        <v>154</v>
+      <c r="A45" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="L45" s="42"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="O45" s="42"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
+      <c r="E45" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" s="41"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O45" s="41"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4458,45 +4478,45 @@
       <c r="AW45" s="26"/>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A46" s="15" t="s">
-        <v>153</v>
+      <c r="A46" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="6">
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
+      <c r="E46" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4529,45 +4549,45 @@
       <c r="AW46" s="26"/>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A47" s="15" t="s">
-        <v>155</v>
+      <c r="A47" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6">
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="O47" s="42"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
+      <c r="E47" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="O47" s="41"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4600,47 +4620,47 @@
       <c r="AW47" s="26"/>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A48" s="15" t="s">
-        <v>203</v>
+      <c r="A48" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6">
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37" t="s">
+      <c r="E48" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4673,8 +4693,8 @@
       <c r="AW48" s="26"/>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
-      <c r="A49" s="15" t="s">
-        <v>202</v>
+      <c r="A49" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -4683,41 +4703,41 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37" t="s">
+      <c r="E49" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="44" t="s">
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="AA49" s="6"/>
       <c r="AB49" s="19"/>
@@ -4749,27 +4769,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4800,27 +4820,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4851,27 +4871,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4902,27 +4922,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4953,27 +4973,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5004,27 +5024,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5055,27 +5075,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5106,27 +5126,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5157,27 +5177,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5208,27 +5228,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5258,27 +5278,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5309,27 +5329,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5360,27 +5380,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5411,27 +5431,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5462,27 +5482,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5510,42 +5530,42 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
+        <v>124</v>
+      </c>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5572,44 +5592,44 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A66" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
+        <v>124</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5637,46 +5657,46 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
+        <v>234</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5705,27 +5725,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5747,27 +5767,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5797,27 +5817,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5849,27 +5869,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5893,7 +5913,7 @@
       <c r="AT71" s="19"/>
       <c r="AU71" s="19"/>
       <c r="AV71" s="25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AW71" s="26"/>
       <c r="AX71" s="26"/>
@@ -5903,27 +5923,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5955,27 +5975,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6007,27 +6027,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6059,27 +6079,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6111,27 +6131,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6163,27 +6183,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6215,27 +6235,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6267,27 +6287,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6319,27 +6339,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38"/>
+      <c r="Y80" s="38"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6371,27 +6391,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="38"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6423,27 +6443,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="37"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6475,27 +6495,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="37"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="37"/>
-      <c r="X83" s="37"/>
-      <c r="Y83" s="37"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6527,27 +6547,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="37"/>
-      <c r="X84" s="37"/>
-      <c r="Y84" s="37"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6579,27 +6599,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="38"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6631,27 +6651,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="38"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6683,27 +6703,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="38"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6735,27 +6755,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6787,27 +6807,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="38"/>
+      <c r="Y89" s="38"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6839,27 +6859,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6891,27 +6911,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="38"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6943,27 +6963,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="37"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="37"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="37"/>
-      <c r="X92" s="37"/>
-      <c r="Y92" s="37"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -6995,27 +7015,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="37"/>
-      <c r="X93" s="37"/>
-      <c r="Y93" s="37"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7047,27 +7067,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="37"/>
-      <c r="Y94" s="37"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="38"/>
+      <c r="Y94" s="38"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7099,27 +7119,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="37"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="37"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="37"/>
-      <c r="X95" s="37"/>
-      <c r="Y95" s="37"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7151,27 +7171,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="38"/>
+      <c r="Y96" s="38"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7203,27 +7223,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="37"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="37"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="37"/>
-      <c r="X97" s="37"/>
-      <c r="Y97" s="37"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="38"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="38"/>
+      <c r="Y97" s="38"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7255,27 +7275,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="38"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7307,27 +7327,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="37"/>
-      <c r="X99" s="37"/>
-      <c r="Y99" s="37"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="38"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="38"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="38"/>
+      <c r="X99" s="38"/>
+      <c r="Y99" s="38"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7359,27 +7379,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="37"/>
-      <c r="T100" s="37"/>
-      <c r="U100" s="37"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="37"/>
-      <c r="X100" s="37"/>
-      <c r="Y100" s="37"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="38"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="38"/>
+      <c r="V100" s="38"/>
+      <c r="W100" s="38"/>
+      <c r="X100" s="38"/>
+      <c r="Y100" s="38"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7411,27 +7431,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="38"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="38"/>
+      <c r="X101" s="38"/>
+      <c r="Y101" s="38"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7528,7 +7548,7 @@
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B109" t="s">
         <v>62</v>
@@ -7563,7 +7583,7 @@
         <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -7598,6 +7618,14 @@
         <v>87</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" t="s">
+        <v>333</v>
+      </c>
+    </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>69</v>
@@ -7656,7 +7684,7 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B130" s="14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C130" s="14"/>
     </row>
@@ -7665,12 +7693,12 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C131" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="38"/>
+        <v>214</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="39"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -7691,13 +7719,13 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B132" s="6">
         <v>2</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -7720,13 +7748,13 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B133" s="6">
         <v>2</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -7749,13 +7777,13 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B134" s="6">
         <v>1</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
@@ -7778,13 +7806,13 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B135" s="6">
         <v>3</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
@@ -7807,13 +7835,13 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B136" s="6">
         <v>3</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
@@ -7836,13 +7864,13 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B137" s="6">
         <v>3</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
@@ -7865,13 +7893,13 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B138" s="6">
         <v>3</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
@@ -7894,13 +7922,13 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B139" s="6">
         <v>2</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
@@ -7923,13 +7951,13 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B140" s="6">
         <v>2</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
@@ -7952,13 +7980,13 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B141" s="6">
         <v>2</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
@@ -7981,13 +8009,13 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B142" s="6">
         <v>1</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
@@ -8010,13 +8038,13 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B143" s="6">
         <v>1</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
@@ -8039,13 +8067,13 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B144" s="6">
         <v>2</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
@@ -8068,13 +8096,13 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B145" s="6">
         <v>2</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
@@ -8097,13 +8125,13 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B146" s="6">
         <v>2</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
@@ -8125,14 +8153,14 @@
       <c r="U146" s="25"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A147" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B147" s="6">
+      <c r="A147" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="15">
         <v>1</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
@@ -8155,13 +8183,13 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B148" s="6">
         <v>2</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -8184,13 +8212,13 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B149" s="6">
         <v>2</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
@@ -8213,13 +8241,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B150" s="6">
         <v>2</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
@@ -8242,13 +8270,13 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B151" s="6">
         <v>2</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
@@ -8271,13 +8299,13 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B152" s="6">
         <v>2</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
@@ -8300,13 +8328,13 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B153" s="6">
         <v>2</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
@@ -8329,13 +8357,13 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B154" s="6">
         <v>2</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
@@ -8358,13 +8386,13 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B155" s="6">
         <v>2</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
@@ -8389,7 +8417,7 @@
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="25" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
@@ -8414,7 +8442,7 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="25" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
@@ -9261,6 +9289,557 @@
     </row>
   </sheetData>
   <mergeCells count="575">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L9:S9"/>
     <mergeCell ref="T9:AA9"/>
@@ -9285,557 +9864,6 @@
     <mergeCell ref="T85:Y85"/>
     <mergeCell ref="T86:Y86"/>
     <mergeCell ref="T87:Y87"/>
-    <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B169B2CB-A2DC-47D2-8F1C-E4986211D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7275DA6-2D83-4409-8C48-BF4F9D09C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,14 +1765,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1780,28 +1783,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:G37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,48 +2225,48 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37" t="s">
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
       <c r="AL9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
@@ -2335,71 +2335,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="39"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="39" t="s">
+      <c r="U11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="39"/>
+      <c r="V11" s="40"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="39" t="s">
+      <c r="Y11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="39"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="39" t="s">
+      <c r="AC11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="39"/>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="39" t="s">
+      <c r="AG11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="39"/>
+      <c r="AH11" s="40"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2429,41 +2429,41 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="38" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
@@ -2476,7 +2476,7 @@
         <v>316</v>
       </c>
       <c r="B13" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
@@ -2493,49 +2493,49 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
@@ -2560,43 +2560,43 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="38" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>327</v>
@@ -2623,47 +2623,47 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
@@ -2694,45 +2694,45 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="36"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>327</v>
@@ -2759,51 +2759,51 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="38" t="s">
+      <c r="I17" s="38"/>
+      <c r="J17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="38"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="46" t="s">
+      <c r="P17" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="47" t="s">
+      <c r="AJ17" s="36" t="s">
         <v>125</v>
       </c>
       <c r="AK17" s="6"/>
@@ -2831,37 +2831,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="38" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="38"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2874,33 +2874,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2913,33 +2913,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2952,33 +2952,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2991,33 +2991,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3030,33 +3030,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3069,33 +3069,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3108,33 +3108,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3147,33 +3147,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3186,33 +3186,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3225,33 +3225,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3276,28 +3276,28 @@
       <c r="T31" t="s">
         <v>259</v>
       </c>
-      <c r="AB31" s="39" t="s">
+      <c r="AB31" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
       <c r="AX31" t="s">
         <v>185</v>
       </c>
@@ -3315,39 +3315,39 @@
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39" t="s">
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39" t="s">
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39" t="s">
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
       <c r="Z32" s="1" t="s">
         <v>129</v>
       </c>
@@ -3444,35 +3444,35 @@
         <v>330</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38" t="s">
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38" t="s">
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="40" t="s">
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3529,35 +3529,35 @@
         <v>279</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38" t="s">
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38" t="s">
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="40" t="s">
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3616,37 +3616,37 @@
         <v>281</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="40" t="s">
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3699,35 +3699,35 @@
         <v>280</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38" t="s">
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38" t="s">
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="40" t="s">
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3786,37 +3786,37 @@
         <v>282</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38" t="s">
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38" t="s">
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="40" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3862,35 +3862,35 @@
         <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38" t="s">
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38" t="s">
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="40" t="s">
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3937,33 +3937,33 @@
         <v>286</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38" t="s">
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="40" t="s">
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -4022,33 +4022,33 @@
         <v>285</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38" t="s">
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="40" t="s">
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4090,35 +4090,35 @@
         <v>287</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="40" t="s">
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4166,35 +4166,35 @@
         <v>291</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38" t="s">
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="40" t="s">
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4247,35 +4247,35 @@
         <v>282</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38" t="s">
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="40" t="s">
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4327,35 +4327,35 @@
         <v>282</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38" t="s">
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38" t="s">
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="40" t="s">
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4405,37 +4405,37 @@
         <v>289</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38" t="s">
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="35" t="s">
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="L45" s="41"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="35" t="s">
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="O45" s="41"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38" t="s">
+      <c r="O45" s="44"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4486,37 +4486,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38" t="s">
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38" t="s">
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38" t="s">
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4557,37 +4557,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38" t="s">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38" t="s">
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="35" t="s">
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="O47" s="41"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38" t="s">
+      <c r="O47" s="44"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4628,39 +4628,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38" t="s">
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38" t="s">
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38" t="s">
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38" t="s">
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38" t="s">
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4703,39 +4703,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38" t="s">
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38" t="s">
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38" t="s">
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="40" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
       <c r="Z49" s="6" t="s">
         <v>272</v>
       </c>
@@ -4769,27 +4769,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4820,27 +4820,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4871,27 +4871,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4922,27 +4922,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4973,27 +4973,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5024,27 +5024,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5075,27 +5075,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5126,27 +5126,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5177,27 +5177,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5228,27 +5228,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5278,27 +5278,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5329,27 +5329,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5380,27 +5380,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5431,27 +5431,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5482,27 +5482,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5539,33 +5539,33 @@
       <c r="D65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38" t="s">
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="40" t="s">
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5601,35 +5601,35 @@
       <c r="D66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38" t="s">
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38" t="s">
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="40" t="s">
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5666,37 +5666,37 @@
       <c r="D67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38" t="s">
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38" t="s">
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38" t="s">
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38" t="s">
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5725,27 +5725,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5767,27 +5767,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5817,27 +5817,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5869,27 +5869,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5923,27 +5923,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5975,27 +5975,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6027,27 +6027,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6079,27 +6079,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6131,27 +6131,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6183,27 +6183,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6235,27 +6235,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6287,27 +6287,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6339,27 +6339,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="38"/>
-      <c r="X80" s="38"/>
-      <c r="Y80" s="38"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6391,27 +6391,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6443,27 +6443,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6495,27 +6495,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6547,27 +6547,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6599,27 +6599,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6651,27 +6651,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6703,27 +6703,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="38"/>
-      <c r="X87" s="38"/>
-      <c r="Y87" s="38"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6755,27 +6755,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6807,27 +6807,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="38"/>
-      <c r="Y89" s="38"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6859,27 +6859,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6911,27 +6911,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6963,27 +6963,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="38"/>
-      <c r="S92" s="38"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="38"/>
-      <c r="X92" s="38"/>
-      <c r="Y92" s="38"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="39"/>
+      <c r="Y92" s="39"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -7015,27 +7015,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-      <c r="Y93" s="38"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7067,27 +7067,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="38"/>
-      <c r="X94" s="38"/>
-      <c r="Y94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7119,27 +7119,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="38"/>
-      <c r="W95" s="38"/>
-      <c r="X95" s="38"/>
-      <c r="Y95" s="38"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7171,27 +7171,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
-      <c r="Q96" s="38"/>
-      <c r="R96" s="38"/>
-      <c r="S96" s="38"/>
-      <c r="T96" s="38"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="38"/>
-      <c r="X96" s="38"/>
-      <c r="Y96" s="38"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7223,27 +7223,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38"/>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="38"/>
-      <c r="X97" s="38"/>
-      <c r="Y97" s="38"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="39"/>
+      <c r="Y97" s="39"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7275,27 +7275,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="38"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38"/>
-      <c r="S98" s="38"/>
-      <c r="T98" s="38"/>
-      <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="38"/>
-      <c r="X98" s="38"/>
-      <c r="Y98" s="38"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="39"/>
+      <c r="Y98" s="39"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7327,27 +7327,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="38"/>
-      <c r="O99" s="38"/>
-      <c r="P99" s="38"/>
-      <c r="Q99" s="38"/>
-      <c r="R99" s="38"/>
-      <c r="S99" s="38"/>
-      <c r="T99" s="38"/>
-      <c r="U99" s="38"/>
-      <c r="V99" s="38"/>
-      <c r="W99" s="38"/>
-      <c r="X99" s="38"/>
-      <c r="Y99" s="38"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7379,27 +7379,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="38"/>
-      <c r="Q100" s="38"/>
-      <c r="R100" s="38"/>
-      <c r="S100" s="38"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="38"/>
-      <c r="W100" s="38"/>
-      <c r="X100" s="38"/>
-      <c r="Y100" s="38"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+      <c r="Y100" s="39"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7431,27 +7431,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="38"/>
-      <c r="O101" s="38"/>
-      <c r="P101" s="38"/>
-      <c r="Q101" s="38"/>
-      <c r="R101" s="38"/>
-      <c r="S101" s="38"/>
-      <c r="T101" s="38"/>
-      <c r="U101" s="38"/>
-      <c r="V101" s="38"/>
-      <c r="W101" s="38"/>
-      <c r="X101" s="38"/>
-      <c r="Y101" s="38"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="39"/>
+      <c r="Y101" s="39"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7695,10 +7695,10 @@
       <c r="B131" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="39" t="s">
+      <c r="C131" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="39"/>
+      <c r="D131" s="40"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9289,17 +9289,546 @@
     </row>
   </sheetData>
   <mergeCells count="575">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="T100:Y100"/>
+    <mergeCell ref="T101:Y101"/>
+    <mergeCell ref="AB31:AU31"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="T91:Y91"/>
+    <mergeCell ref="T92:Y92"/>
+    <mergeCell ref="T93:Y93"/>
+    <mergeCell ref="T94:Y94"/>
+    <mergeCell ref="T95:Y95"/>
+    <mergeCell ref="T96:Y96"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T98:Y98"/>
+    <mergeCell ref="T99:Y99"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="T84:Y84"/>
+    <mergeCell ref="T85:Y85"/>
+    <mergeCell ref="T86:Y86"/>
+    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AG26:AH26"/>
@@ -9324,546 +9853,17 @@
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="Y28:Z28"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="T100:Y100"/>
-    <mergeCell ref="T101:Y101"/>
-    <mergeCell ref="AB31:AU31"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="T91:Y91"/>
-    <mergeCell ref="T92:Y92"/>
-    <mergeCell ref="T93:Y93"/>
-    <mergeCell ref="T94:Y94"/>
-    <mergeCell ref="T95:Y95"/>
-    <mergeCell ref="T96:Y96"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T98:Y98"/>
-    <mergeCell ref="T99:Y99"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="T84:Y84"/>
-    <mergeCell ref="T85:Y85"/>
-    <mergeCell ref="T86:Y86"/>
-    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7275DA6-2D83-4409-8C48-BF4F9D09C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CAB059-F832-4B82-A51D-8A56BACD5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1772,10 +1772,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1783,26 +1786,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,84 +2225,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47" t="s">
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
       <c r="AL9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="L10" s="42" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="L10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42" t="s">
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42" t="s">
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42" t="s">
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42" t="s">
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
       <c r="AJ10" s="32" t="s">
         <v>123</v>
       </c>
@@ -2335,71 +2335,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="40"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="40"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="40" t="s">
+      <c r="AC11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="40"/>
+      <c r="AD11" s="41"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="40" t="s">
+      <c r="AG11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="40"/>
+      <c r="AH11" s="41"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2429,41 +2429,41 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
@@ -2493,49 +2493,49 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
@@ -2560,43 +2560,43 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>327</v>
@@ -2623,47 +2623,47 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
@@ -2694,45 +2694,45 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="45"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>327</v>
@@ -2759,49 +2759,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="12"/>
       <c r="P17" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="36" t="s">
         <v>125</v>
@@ -2831,37 +2831,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2874,33 +2874,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2913,33 +2913,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2952,33 +2952,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2991,33 +2991,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3030,33 +3030,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3069,33 +3069,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3108,33 +3108,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3147,33 +3147,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3186,33 +3186,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3225,33 +3225,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3276,28 +3276,28 @@
       <c r="T31" t="s">
         <v>259</v>
       </c>
-      <c r="AB31" s="40" t="s">
+      <c r="AB31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="40"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="40"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
       <c r="AX31" t="s">
         <v>185</v>
       </c>
@@ -3315,39 +3315,39 @@
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40" t="s">
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40" t="s">
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40" t="s">
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40" t="s">
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
       <c r="Z32" s="1" t="s">
         <v>129</v>
       </c>
@@ -3444,35 +3444,35 @@
         <v>330</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39" t="s">
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="46" t="s">
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3529,35 +3529,35 @@
         <v>279</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39" t="s">
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="46" t="s">
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3616,37 +3616,37 @@
         <v>281</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39" t="s">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39" t="s">
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="46" t="s">
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3699,35 +3699,35 @@
         <v>280</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39" t="s">
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="46" t="s">
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3786,37 +3786,37 @@
         <v>282</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39" t="s">
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39" t="s">
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="46" t="s">
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3862,35 +3862,35 @@
         <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39" t="s">
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="46" t="s">
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3937,33 +3937,33 @@
         <v>286</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39" t="s">
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="46" t="s">
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -4022,33 +4022,33 @@
         <v>285</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39" t="s">
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="46" t="s">
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4090,35 +4090,35 @@
         <v>287</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39" t="s">
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39" t="s">
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="46" t="s">
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4166,35 +4166,35 @@
         <v>291</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="46" t="s">
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4247,35 +4247,35 @@
         <v>282</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39" t="s">
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="46" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4327,35 +4327,35 @@
         <v>282</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39" t="s">
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="46" t="s">
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4405,37 +4405,37 @@
         <v>289</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="43" t="s">
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="43" t="s">
+      <c r="L45" s="43"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="O45" s="44"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39" t="s">
+      <c r="O45" s="43"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4486,37 +4486,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39" t="s">
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39" t="s">
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39" t="s">
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39" t="s">
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4557,37 +4557,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39" t="s">
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="43" t="s">
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39" t="s">
+      <c r="O47" s="43"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4628,39 +4628,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39" t="s">
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39" t="s">
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39" t="s">
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39" t="s">
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4703,39 +4703,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39" t="s">
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39" t="s">
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39" t="s">
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="46" t="s">
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
       <c r="Z49" s="6" t="s">
         <v>272</v>
       </c>
@@ -4769,27 +4769,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4820,27 +4820,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4871,27 +4871,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4922,27 +4922,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4973,27 +4973,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5024,27 +5024,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5075,27 +5075,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5126,27 +5126,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5177,27 +5177,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5228,27 +5228,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5278,27 +5278,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5329,27 +5329,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5380,27 +5380,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5431,27 +5431,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5482,27 +5482,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5539,33 +5539,33 @@
       <c r="D65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39" t="s">
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="46" t="s">
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5601,35 +5601,35 @@
       <c r="D66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39" t="s">
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39" t="s">
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="46" t="s">
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5666,37 +5666,37 @@
       <c r="D67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39" t="s">
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39" t="s">
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39" t="s">
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39" t="s">
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5725,27 +5725,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5767,27 +5767,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5817,27 +5817,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5869,27 +5869,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5923,27 +5923,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5975,27 +5975,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6027,27 +6027,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6079,27 +6079,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6131,27 +6131,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6183,27 +6183,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6235,27 +6235,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6287,27 +6287,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6339,27 +6339,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6391,27 +6391,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6443,27 +6443,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6495,27 +6495,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6547,27 +6547,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6599,27 +6599,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="39"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39"/>
-      <c r="Y85" s="39"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6651,27 +6651,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6703,27 +6703,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6755,27 +6755,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6807,27 +6807,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6859,27 +6859,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6911,27 +6911,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6963,27 +6963,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -7015,27 +7015,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+      <c r="V93" s="40"/>
+      <c r="W93" s="40"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="40"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7067,27 +7067,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="39"/>
-      <c r="W94" s="39"/>
-      <c r="X94" s="39"/>
-      <c r="Y94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="40"/>
+      <c r="S94" s="40"/>
+      <c r="T94" s="40"/>
+      <c r="U94" s="40"/>
+      <c r="V94" s="40"/>
+      <c r="W94" s="40"/>
+      <c r="X94" s="40"/>
+      <c r="Y94" s="40"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7119,27 +7119,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="39"/>
-      <c r="Y95" s="39"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="40"/>
+      <c r="T95" s="40"/>
+      <c r="U95" s="40"/>
+      <c r="V95" s="40"/>
+      <c r="W95" s="40"/>
+      <c r="X95" s="40"/>
+      <c r="Y95" s="40"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7171,27 +7171,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="39"/>
-      <c r="X96" s="39"/>
-      <c r="Y96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="40"/>
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7223,27 +7223,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
-      <c r="S97" s="39"/>
-      <c r="T97" s="39"/>
-      <c r="U97" s="39"/>
-      <c r="V97" s="39"/>
-      <c r="W97" s="39"/>
-      <c r="X97" s="39"/>
-      <c r="Y97" s="39"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="40"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40"/>
+      <c r="S97" s="40"/>
+      <c r="T97" s="40"/>
+      <c r="U97" s="40"/>
+      <c r="V97" s="40"/>
+      <c r="W97" s="40"/>
+      <c r="X97" s="40"/>
+      <c r="Y97" s="40"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7275,27 +7275,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
-      <c r="X98" s="39"/>
-      <c r="Y98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="40"/>
+      <c r="S98" s="40"/>
+      <c r="T98" s="40"/>
+      <c r="U98" s="40"/>
+      <c r="V98" s="40"/>
+      <c r="W98" s="40"/>
+      <c r="X98" s="40"/>
+      <c r="Y98" s="40"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7327,27 +7327,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="39"/>
-      <c r="U99" s="39"/>
-      <c r="V99" s="39"/>
-      <c r="W99" s="39"/>
-      <c r="X99" s="39"/>
-      <c r="Y99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
+      <c r="S99" s="40"/>
+      <c r="T99" s="40"/>
+      <c r="U99" s="40"/>
+      <c r="V99" s="40"/>
+      <c r="W99" s="40"/>
+      <c r="X99" s="40"/>
+      <c r="Y99" s="40"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7379,27 +7379,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="39"/>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
-      <c r="X100" s="39"/>
-      <c r="Y100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="40"/>
+      <c r="S100" s="40"/>
+      <c r="T100" s="40"/>
+      <c r="U100" s="40"/>
+      <c r="V100" s="40"/>
+      <c r="W100" s="40"/>
+      <c r="X100" s="40"/>
+      <c r="Y100" s="40"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7431,27 +7431,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="39"/>
-      <c r="U101" s="39"/>
-      <c r="V101" s="39"/>
-      <c r="W101" s="39"/>
-      <c r="X101" s="39"/>
-      <c r="Y101" s="39"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="40"/>
+      <c r="U101" s="40"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
+      <c r="X101" s="40"/>
+      <c r="Y101" s="40"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7695,10 +7695,10 @@
       <c r="B131" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="40" t="s">
+      <c r="C131" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="40"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9289,6 +9289,557 @@
     </row>
   </sheetData>
   <mergeCells count="575">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L9:S9"/>
     <mergeCell ref="T9:AA9"/>
@@ -9313,557 +9864,6 @@
     <mergeCell ref="T85:Y85"/>
     <mergeCell ref="T86:Y86"/>
     <mergeCell ref="T87:Y87"/>
-    <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CAB059-F832-4B82-A51D-8A56BACD5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7535AA44-DFD8-4A9A-A988-31BC7F329235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,10 +1356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16/32/64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신에게 강화를 부여한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,6 +1369,10 @@
   </si>
   <si>
     <t xml:space="preserve">가시: 받은 데미지의 절반을 반사한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/40/60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,13 +1772,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1786,23 +1783,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,84 +2225,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39" t="s">
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
       <c r="AL9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="L10" s="44" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44" t="s">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44" t="s">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44" t="s">
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44" t="s">
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
       <c r="AJ10" s="32" t="s">
         <v>123</v>
       </c>
@@ -2335,71 +2335,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="41"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="41" t="s">
+      <c r="Q11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="41"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="41"/>
+      <c r="V11" s="40"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="41" t="s">
+      <c r="Y11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="41"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="41" t="s">
+      <c r="AC11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="41"/>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="41" t="s">
+      <c r="AG11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="41"/>
+      <c r="AH11" s="40"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2429,41 +2429,41 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
@@ -2493,49 +2493,49 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
@@ -2560,43 +2560,43 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
         <v>327</v>
@@ -2623,47 +2623,47 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
@@ -2694,45 +2694,45 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
         <v>327</v>
@@ -2759,49 +2759,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="40" t="s">
+      <c r="I17" s="38"/>
+      <c r="J17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="12"/>
       <c r="P17" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="36" t="s">
         <v>125</v>
@@ -2831,37 +2831,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="40" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2874,33 +2874,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2913,33 +2913,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2952,33 +2952,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2991,33 +2991,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3030,33 +3030,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3069,33 +3069,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3108,33 +3108,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3147,33 +3147,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3186,33 +3186,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3225,33 +3225,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3276,28 +3276,28 @@
       <c r="T31" t="s">
         <v>259</v>
       </c>
-      <c r="AB31" s="41" t="s">
+      <c r="AB31" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
       <c r="AX31" t="s">
         <v>185</v>
       </c>
@@ -3315,39 +3315,39 @@
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41" t="s">
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41" t="s">
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41" t="s">
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
       <c r="Z32" s="1" t="s">
         <v>129</v>
       </c>
@@ -3441,38 +3441,38 @@
         <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40" t="s">
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="42" t="s">
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3529,35 +3529,35 @@
         <v>279</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40" t="s">
+      <c r="E34" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40" t="s">
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="42" t="s">
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3616,37 +3616,37 @@
         <v>281</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="42" t="s">
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3699,35 +3699,35 @@
         <v>280</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40" t="s">
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40" t="s">
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="42" t="s">
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3786,37 +3786,37 @@
         <v>282</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40" t="s">
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40" t="s">
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="42" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3862,35 +3862,35 @@
         <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40" t="s">
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40" t="s">
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="42" t="s">
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3937,33 +3937,33 @@
         <v>286</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40" t="s">
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="42" t="s">
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -4022,33 +4022,33 @@
         <v>285</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40" t="s">
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="42" t="s">
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4090,35 +4090,35 @@
         <v>287</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="42" t="s">
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4166,35 +4166,35 @@
         <v>291</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40" t="s">
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="42" t="s">
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4247,35 +4247,35 @@
         <v>282</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40" t="s">
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="42" t="s">
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4327,35 +4327,35 @@
         <v>282</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40" t="s">
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40" t="s">
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="42" t="s">
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4405,37 +4405,37 @@
         <v>289</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40" t="s">
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="37" t="s">
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="37" t="s">
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="O45" s="43"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40" t="s">
+      <c r="O45" s="44"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4486,37 +4486,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40" t="s">
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40" t="s">
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40" t="s">
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4557,37 +4557,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40" t="s">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40" t="s">
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="37" t="s">
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="O47" s="43"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40" t="s">
+      <c r="O47" s="44"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4628,39 +4628,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40" t="s">
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40" t="s">
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40" t="s">
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40" t="s">
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40" t="s">
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4703,39 +4703,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40" t="s">
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40" t="s">
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40" t="s">
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="42" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
       <c r="Z49" s="6" t="s">
         <v>272</v>
       </c>
@@ -4769,27 +4769,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4820,27 +4820,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4871,27 +4871,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4922,27 +4922,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4973,27 +4973,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5024,27 +5024,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5075,27 +5075,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5126,27 +5126,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5177,27 +5177,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5228,27 +5228,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5278,27 +5278,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5329,27 +5329,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5380,27 +5380,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5431,27 +5431,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5482,27 +5482,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5539,33 +5539,33 @@
       <c r="D65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40" t="s">
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="42" t="s">
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5601,35 +5601,35 @@
       <c r="D66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40" t="s">
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40" t="s">
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="42" t="s">
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5666,37 +5666,37 @@
       <c r="D67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40" t="s">
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40" t="s">
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40" t="s">
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40" t="s">
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5725,27 +5725,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5767,27 +5767,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5817,27 +5817,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5869,27 +5869,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5923,27 +5923,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5975,27 +5975,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6027,27 +6027,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6079,27 +6079,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6131,27 +6131,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6183,27 +6183,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6235,27 +6235,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="40"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6287,27 +6287,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="40"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6339,27 +6339,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="40"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6391,27 +6391,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6443,27 +6443,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="40"/>
-      <c r="U82" s="40"/>
-      <c r="V82" s="40"/>
-      <c r="W82" s="40"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6495,27 +6495,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="40"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6547,27 +6547,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="40"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="40"/>
-      <c r="W84" s="40"/>
-      <c r="X84" s="40"/>
-      <c r="Y84" s="40"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6599,27 +6599,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
-      <c r="N85" s="40"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="40"/>
-      <c r="U85" s="40"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="40"/>
-      <c r="X85" s="40"/>
-      <c r="Y85" s="40"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6651,27 +6651,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="40"/>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6703,27 +6703,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6755,27 +6755,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="40"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6807,27 +6807,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="40"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6859,27 +6859,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
-      <c r="W90" s="40"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="40"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6911,27 +6911,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
-      <c r="N91" s="40"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="40"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6963,27 +6963,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="40"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="39"/>
+      <c r="Y92" s="39"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -7015,27 +7015,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
-      <c r="W93" s="40"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="40"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7067,27 +7067,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7119,27 +7119,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="40"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7171,27 +7171,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7223,27 +7223,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="39"/>
+      <c r="Y97" s="39"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7275,27 +7275,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
-      <c r="X98" s="40"/>
-      <c r="Y98" s="40"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="39"/>
+      <c r="Y98" s="39"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7327,27 +7327,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7379,27 +7379,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="40"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="40"/>
-      <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
-      <c r="T100" s="40"/>
-      <c r="U100" s="40"/>
-      <c r="V100" s="40"/>
-      <c r="W100" s="40"/>
-      <c r="X100" s="40"/>
-      <c r="Y100" s="40"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+      <c r="Y100" s="39"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7431,27 +7431,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
-      <c r="Q101" s="40"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="40"/>
-      <c r="U101" s="40"/>
-      <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
-      <c r="X101" s="40"/>
-      <c r="Y101" s="40"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="39"/>
+      <c r="Y101" s="39"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7620,10 +7620,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" t="s">
         <v>332</v>
-      </c>
-      <c r="B118" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -7695,10 +7695,10 @@
       <c r="B131" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="41" t="s">
+      <c r="C131" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="41"/>
+      <c r="D131" s="40"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9289,17 +9289,546 @@
     </row>
   </sheetData>
   <mergeCells count="575">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="T100:Y100"/>
+    <mergeCell ref="T101:Y101"/>
+    <mergeCell ref="AB31:AU31"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="T91:Y91"/>
+    <mergeCell ref="T92:Y92"/>
+    <mergeCell ref="T93:Y93"/>
+    <mergeCell ref="T94:Y94"/>
+    <mergeCell ref="T95:Y95"/>
+    <mergeCell ref="T96:Y96"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T98:Y98"/>
+    <mergeCell ref="T99:Y99"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="T84:Y84"/>
+    <mergeCell ref="T85:Y85"/>
+    <mergeCell ref="T86:Y86"/>
+    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AG26:AH26"/>
@@ -9324,546 +9853,17 @@
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="Y28:Z28"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="T100:Y100"/>
-    <mergeCell ref="T101:Y101"/>
-    <mergeCell ref="AB31:AU31"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="T91:Y91"/>
-    <mergeCell ref="T92:Y92"/>
-    <mergeCell ref="T93:Y93"/>
-    <mergeCell ref="T94:Y94"/>
-    <mergeCell ref="T95:Y95"/>
-    <mergeCell ref="T96:Y96"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T98:Y98"/>
-    <mergeCell ref="T99:Y99"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="T84:Y84"/>
-    <mergeCell ref="T85:Y85"/>
-    <mergeCell ref="T86:Y86"/>
-    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7535AA44-DFD8-4A9A-A988-31BC7F329235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD843D5-86CA-4019-8475-1ED69FF447AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1152,10 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20/25/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12/16/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,6 +1369,10 @@
   </si>
   <si>
     <t>20/40/60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/24/32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,10 +1772,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1783,26 +1786,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34:Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,84 +2225,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
       <c r="AL9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="L10" s="42" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="L10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42" t="s">
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42" t="s">
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42" t="s">
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42" t="s">
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
       <c r="AJ10" s="32" t="s">
         <v>123</v>
       </c>
@@ -2335,71 +2335,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="40"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="40"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="40" t="s">
+      <c r="AC11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="40"/>
+      <c r="AD11" s="41"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="40" t="s">
+      <c r="AG11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="40"/>
+      <c r="AH11" s="41"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="6">
         <v>150</v>
@@ -2429,51 +2429,51 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="6">
         <v>80</v>
@@ -2493,56 +2493,56 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="6">
         <v>100</v>
@@ -2560,52 +2560,52 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
+        <v>306</v>
+      </c>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" s="6">
         <v>80</v>
@@ -2623,54 +2623,54 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
+        <v>307</v>
+      </c>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" s="6">
         <v>100</v>
@@ -2694,54 +2694,54 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="45"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17" s="6">
         <v>100</v>
@@ -2759,49 +2759,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+        <v>321</v>
+      </c>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="12"/>
       <c r="P17" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+        <v>322</v>
+      </c>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+        <v>323</v>
+      </c>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
+        <v>324</v>
+      </c>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
+        <v>325</v>
+      </c>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
+        <v>316</v>
+      </c>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="36" t="s">
         <v>125</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="6">
         <v>100</v>
@@ -2831,37 +2831,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2874,33 +2874,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2913,33 +2913,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2952,33 +2952,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2991,33 +2991,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3030,33 +3030,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3069,33 +3069,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3108,33 +3108,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3147,33 +3147,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3186,33 +3186,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3225,33 +3225,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3276,28 +3276,28 @@
       <c r="T31" t="s">
         <v>259</v>
       </c>
-      <c r="AB31" s="40" t="s">
+      <c r="AB31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="40"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="40"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
       <c r="AX31" t="s">
         <v>185</v>
       </c>
@@ -3315,39 +3315,39 @@
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40" t="s">
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40" t="s">
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40" t="s">
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40" t="s">
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
       <c r="Z32" s="1" t="s">
         <v>129</v>
       </c>
@@ -3435,44 +3435,44 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="46" t="s">
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3526,38 +3526,38 @@
         <v>157</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39" t="s">
+      <c r="E34" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="46" t="s">
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3613,40 +3613,40 @@
         <v>158</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39" t="s">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39" t="s">
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="46" t="s">
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3696,38 +3696,38 @@
         <v>159</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39" t="s">
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="46" t="s">
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3783,40 +3783,40 @@
         <v>160</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39" t="s">
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="46" t="s">
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3862,35 +3862,35 @@
         <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39" t="s">
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="46" t="s">
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3934,36 +3934,36 @@
         <v>162</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="46" t="s">
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -4019,36 +4019,36 @@
         <v>163</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39" t="s">
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="46" t="s">
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4087,38 +4087,38 @@
         <v>156</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="46" t="s">
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4163,38 +4163,38 @@
         <v>165</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="46" t="s">
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4244,38 +4244,38 @@
         <v>166</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39" t="s">
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="46" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4324,38 +4324,38 @@
         <v>247</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39" t="s">
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="46" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4402,40 +4402,40 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="43" t="s">
+      <c r="L45" s="43"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="O45" s="44"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39" t="s">
+      <c r="O45" s="43"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4486,37 +4486,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39" t="s">
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39" t="s">
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39" t="s">
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39" t="s">
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4557,37 +4557,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39" t="s">
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="43" t="s">
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39" t="s">
+      <c r="O47" s="43"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4628,39 +4628,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39" t="s">
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39" t="s">
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39" t="s">
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39" t="s">
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -4703,39 +4703,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39" t="s">
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39" t="s">
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39" t="s">
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="46" t="s">
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
       <c r="Z49" s="6" t="s">
         <v>272</v>
       </c>
@@ -4769,27 +4769,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4820,27 +4820,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4871,27 +4871,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4922,27 +4922,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4973,27 +4973,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5024,27 +5024,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5075,27 +5075,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5126,27 +5126,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5177,27 +5177,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5228,27 +5228,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5278,27 +5278,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5329,27 +5329,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5380,27 +5380,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5431,27 +5431,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5482,27 +5482,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5534,38 +5534,38 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="46" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5596,40 +5596,40 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39" t="s">
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="46" t="s">
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5661,42 +5661,42 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39" t="s">
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39" t="s">
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39" t="s">
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5725,27 +5725,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5767,27 +5767,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5817,27 +5817,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5869,27 +5869,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5923,27 +5923,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5975,27 +5975,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6027,27 +6027,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6079,27 +6079,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6131,27 +6131,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6183,27 +6183,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6235,27 +6235,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6287,27 +6287,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6339,27 +6339,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6391,27 +6391,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6443,27 +6443,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6495,27 +6495,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6547,27 +6547,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6599,27 +6599,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="39"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39"/>
-      <c r="Y85" s="39"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6651,27 +6651,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6703,27 +6703,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6755,27 +6755,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6807,27 +6807,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6859,27 +6859,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6911,27 +6911,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6963,27 +6963,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="40"/>
+      <c r="X92" s="40"/>
+      <c r="Y92" s="40"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -7015,27 +7015,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="39"/>
-      <c r="U93" s="39"/>
-      <c r="V93" s="39"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="39"/>
-      <c r="Y93" s="39"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+      <c r="V93" s="40"/>
+      <c r="W93" s="40"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="40"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7067,27 +7067,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="39"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="39"/>
-      <c r="W94" s="39"/>
-      <c r="X94" s="39"/>
-      <c r="Y94" s="39"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="40"/>
+      <c r="S94" s="40"/>
+      <c r="T94" s="40"/>
+      <c r="U94" s="40"/>
+      <c r="V94" s="40"/>
+      <c r="W94" s="40"/>
+      <c r="X94" s="40"/>
+      <c r="Y94" s="40"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7119,27 +7119,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="39"/>
-      <c r="Y95" s="39"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="40"/>
+      <c r="T95" s="40"/>
+      <c r="U95" s="40"/>
+      <c r="V95" s="40"/>
+      <c r="W95" s="40"/>
+      <c r="X95" s="40"/>
+      <c r="Y95" s="40"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7171,27 +7171,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="39"/>
-      <c r="X96" s="39"/>
-      <c r="Y96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="40"/>
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7223,27 +7223,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
-      <c r="S97" s="39"/>
-      <c r="T97" s="39"/>
-      <c r="U97" s="39"/>
-      <c r="V97" s="39"/>
-      <c r="W97" s="39"/>
-      <c r="X97" s="39"/>
-      <c r="Y97" s="39"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="40"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40"/>
+      <c r="S97" s="40"/>
+      <c r="T97" s="40"/>
+      <c r="U97" s="40"/>
+      <c r="V97" s="40"/>
+      <c r="W97" s="40"/>
+      <c r="X97" s="40"/>
+      <c r="Y97" s="40"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7275,27 +7275,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
-      <c r="X98" s="39"/>
-      <c r="Y98" s="39"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="40"/>
+      <c r="S98" s="40"/>
+      <c r="T98" s="40"/>
+      <c r="U98" s="40"/>
+      <c r="V98" s="40"/>
+      <c r="W98" s="40"/>
+      <c r="X98" s="40"/>
+      <c r="Y98" s="40"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7327,27 +7327,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="39"/>
-      <c r="U99" s="39"/>
-      <c r="V99" s="39"/>
-      <c r="W99" s="39"/>
-      <c r="X99" s="39"/>
-      <c r="Y99" s="39"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
+      <c r="S99" s="40"/>
+      <c r="T99" s="40"/>
+      <c r="U99" s="40"/>
+      <c r="V99" s="40"/>
+      <c r="W99" s="40"/>
+      <c r="X99" s="40"/>
+      <c r="Y99" s="40"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7379,27 +7379,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="39"/>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
-      <c r="X100" s="39"/>
-      <c r="Y100" s="39"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="40"/>
+      <c r="S100" s="40"/>
+      <c r="T100" s="40"/>
+      <c r="U100" s="40"/>
+      <c r="V100" s="40"/>
+      <c r="W100" s="40"/>
+      <c r="X100" s="40"/>
+      <c r="Y100" s="40"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7431,27 +7431,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="39"/>
-      <c r="U101" s="39"/>
-      <c r="V101" s="39"/>
-      <c r="W101" s="39"/>
-      <c r="X101" s="39"/>
-      <c r="Y101" s="39"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="40"/>
+      <c r="U101" s="40"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
+      <c r="X101" s="40"/>
+      <c r="Y101" s="40"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7583,7 +7583,7 @@
         <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -7620,10 +7620,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>330</v>
+      </c>
+      <c r="B118" t="s">
         <v>331</v>
-      </c>
-      <c r="B118" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -7695,10 +7695,10 @@
       <c r="B131" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="40" t="s">
+      <c r="C131" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="40"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -8417,7 +8417,7 @@
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
@@ -8442,7 +8442,7 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
@@ -9289,6 +9289,557 @@
     </row>
   </sheetData>
   <mergeCells count="575">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L9:S9"/>
     <mergeCell ref="T9:AA9"/>
@@ -9313,557 +9864,6 @@
     <mergeCell ref="T85:Y85"/>
     <mergeCell ref="T86:Y86"/>
     <mergeCell ref="T87:Y87"/>
-    <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD843D5-86CA-4019-8475-1ED69FF447AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C995F23-B070-4AD0-B0A2-C16E6314CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피의 귀족 Soamir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">옴 Narin </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,6 +1369,10 @@
   </si>
   <si>
     <t>16/24/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의 귀족 Ato</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,13 +1772,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1786,23 +1783,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34:Y34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,84 +2225,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39" t="s">
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
       <c r="AL9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="L10" s="44" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="L10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44" t="s">
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44" t="s">
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44" t="s">
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44" t="s">
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
       <c r="AJ10" s="32" t="s">
         <v>123</v>
       </c>
@@ -2335,71 +2335,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="41" t="s">
+      <c r="M11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="41"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="41" t="s">
+      <c r="Q11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="41"/>
+      <c r="R11" s="40"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="41"/>
+      <c r="V11" s="40"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="41" t="s">
+      <c r="Y11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="41"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="41" t="s">
+      <c r="AC11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="41"/>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="41" t="s">
+      <c r="AG11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="41"/>
+      <c r="AH11" s="40"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2429,41 +2429,41 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="6">
         <v>80</v>
@@ -2493,56 +2493,56 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B14" s="6">
         <v>100</v>
@@ -2560,46 +2560,46 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK14" s="6"/>
     </row>
@@ -2623,54 +2623,54 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" s="6">
         <v>100</v>
@@ -2694,48 +2694,48 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK16" s="6"/>
     </row>
@@ -2759,49 +2759,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="40" t="s">
+      <c r="I17" s="38"/>
+      <c r="J17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+        <v>320</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="12"/>
       <c r="P17" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
+        <v>321</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
+        <v>322</v>
+      </c>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+        <v>323</v>
+      </c>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
+        <v>324</v>
+      </c>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
+        <v>315</v>
+      </c>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="36" t="s">
         <v>125</v>
@@ -2831,37 +2831,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="40" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2874,33 +2874,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2913,33 +2913,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2952,33 +2952,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2991,33 +2991,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3030,33 +3030,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3069,33 +3069,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3108,33 +3108,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3147,33 +3147,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3186,33 +3186,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="40"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3225,33 +3225,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="40"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3276,28 +3276,28 @@
       <c r="T31" t="s">
         <v>259</v>
       </c>
-      <c r="AB31" s="41" t="s">
+      <c r="AB31" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
       <c r="AX31" t="s">
         <v>185</v>
       </c>
@@ -3315,39 +3315,39 @@
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41" t="s">
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41" t="s">
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41" t="s">
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41" t="s">
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
       <c r="Z32" s="1" t="s">
         <v>129</v>
       </c>
@@ -3435,44 +3435,44 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40" t="s">
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="42" t="s">
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3526,38 +3526,38 @@
         <v>157</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40" t="s">
+      <c r="E34" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40" t="s">
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="42" t="s">
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3616,37 +3616,37 @@
         <v>280</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="42" t="s">
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3699,35 +3699,35 @@
         <v>279</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40" t="s">
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40" t="s">
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="42" t="s">
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3786,37 +3786,37 @@
         <v>281</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40" t="s">
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="42" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3862,35 +3862,35 @@
         <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40" t="s">
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="42" t="s">
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3937,33 +3937,33 @@
         <v>285</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40" t="s">
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="42" t="s">
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -4022,33 +4022,33 @@
         <v>284</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40" t="s">
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="42" t="s">
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4090,35 +4090,35 @@
         <v>286</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="42" t="s">
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4166,35 +4166,35 @@
         <v>290</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40" t="s">
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="42" t="s">
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4247,35 +4247,35 @@
         <v>281</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40" t="s">
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40" t="s">
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="42" t="s">
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4327,35 +4327,35 @@
         <v>281</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40" t="s">
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40" t="s">
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="42" t="s">
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4405,37 +4405,37 @@
         <v>288</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40" t="s">
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="37" t="s">
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="37" t="s">
+      <c r="L45" s="44"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="O45" s="43"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40" t="s">
+      <c r="O45" s="44"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4486,37 +4486,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40" t="s">
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40" t="s">
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40" t="s">
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4557,37 +4557,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40" t="s">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40" t="s">
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="37" t="s">
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="O47" s="43"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40" t="s">
+      <c r="O47" s="44"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4628,39 +4628,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40" t="s">
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40" t="s">
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40" t="s">
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40" t="s">
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40" t="s">
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -4703,39 +4703,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40" t="s">
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40" t="s">
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40" t="s">
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="42" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
       <c r="Z49" s="6" t="s">
         <v>272</v>
       </c>
@@ -4769,27 +4769,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4820,27 +4820,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4871,27 +4871,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4922,27 +4922,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4973,27 +4973,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5024,27 +5024,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5075,27 +5075,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5126,27 +5126,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5177,27 +5177,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5228,27 +5228,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5278,27 +5278,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5329,27 +5329,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5380,27 +5380,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5431,27 +5431,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5482,27 +5482,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5539,33 +5539,33 @@
       <c r="D65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40" t="s">
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="42" t="s">
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5601,35 +5601,35 @@
       <c r="D66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40" t="s">
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40" t="s">
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="42" t="s">
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5666,37 +5666,37 @@
       <c r="D67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40" t="s">
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40" t="s">
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40" t="s">
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40" t="s">
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5725,27 +5725,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5767,27 +5767,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5817,27 +5817,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5869,27 +5869,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5923,27 +5923,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5975,27 +5975,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6027,27 +6027,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6079,27 +6079,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6131,27 +6131,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6183,27 +6183,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6235,27 +6235,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="40"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6287,27 +6287,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="40"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6339,27 +6339,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
-      <c r="V80" s="40"/>
-      <c r="W80" s="40"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6391,27 +6391,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
-      <c r="V81" s="40"/>
-      <c r="W81" s="40"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6443,27 +6443,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="40"/>
-      <c r="T82" s="40"/>
-      <c r="U82" s="40"/>
-      <c r="V82" s="40"/>
-      <c r="W82" s="40"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6495,27 +6495,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="40"/>
-      <c r="T83" s="40"/>
-      <c r="U83" s="40"/>
-      <c r="V83" s="40"/>
-      <c r="W83" s="40"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="40"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6547,27 +6547,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
-      <c r="S84" s="40"/>
-      <c r="T84" s="40"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="40"/>
-      <c r="W84" s="40"/>
-      <c r="X84" s="40"/>
-      <c r="Y84" s="40"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="19"/>
@@ -6599,27 +6599,27 @@
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
-      <c r="N85" s="40"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
-      <c r="R85" s="40"/>
-      <c r="S85" s="40"/>
-      <c r="T85" s="40"/>
-      <c r="U85" s="40"/>
-      <c r="V85" s="40"/>
-      <c r="W85" s="40"/>
-      <c r="X85" s="40"/>
-      <c r="Y85" s="40"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="19"/>
@@ -6651,27 +6651,27 @@
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="40"/>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="19"/>
@@ -6703,27 +6703,27 @@
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="19"/>
@@ -6755,27 +6755,27 @@
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="40"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="19"/>
@@ -6807,27 +6807,27 @@
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="40"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="19"/>
@@ -6859,27 +6859,27 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="40"/>
-      <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
-      <c r="W90" s="40"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="40"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="19"/>
@@ -6911,27 +6911,27 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
-      <c r="N91" s="40"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="40"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="19"/>
@@ -6963,27 +6963,27 @@
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="40"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="39"/>
+      <c r="Y92" s="39"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="19"/>
@@ -7015,27 +7015,27 @@
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
-      <c r="W93" s="40"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="40"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="39"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="19"/>
@@ -7067,27 +7067,27 @@
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="19"/>
@@ -7119,27 +7119,27 @@
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="40"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="19"/>
@@ -7171,27 +7171,27 @@
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="19"/>
@@ -7223,27 +7223,27 @@
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="39"/>
+      <c r="Y97" s="39"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="19"/>
@@ -7275,27 +7275,27 @@
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
-      <c r="X98" s="40"/>
-      <c r="Y98" s="40"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="39"/>
+      <c r="Y98" s="39"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="19"/>
@@ -7327,27 +7327,27 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="19"/>
@@ -7379,27 +7379,27 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="40"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="40"/>
-      <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
-      <c r="T100" s="40"/>
-      <c r="U100" s="40"/>
-      <c r="V100" s="40"/>
-      <c r="W100" s="40"/>
-      <c r="X100" s="40"/>
-      <c r="Y100" s="40"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+      <c r="Y100" s="39"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="19"/>
@@ -7431,27 +7431,27 @@
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
-      <c r="Q101" s="40"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="40"/>
-      <c r="U101" s="40"/>
-      <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
-      <c r="X101" s="40"/>
-      <c r="Y101" s="40"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="39"/>
+      <c r="Y101" s="39"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="19"/>
@@ -7620,10 +7620,10 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>329</v>
+      </c>
+      <c r="B118" t="s">
         <v>330</v>
-      </c>
-      <c r="B118" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -7695,10 +7695,10 @@
       <c r="B131" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="41" t="s">
+      <c r="C131" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D131" s="41"/>
+      <c r="D131" s="40"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -8417,7 +8417,7 @@
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
@@ -8442,7 +8442,7 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
@@ -9289,17 +9289,546 @@
     </row>
   </sheetData>
   <mergeCells count="575">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L9:S9"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="T100:Y100"/>
+    <mergeCell ref="T101:Y101"/>
+    <mergeCell ref="AB31:AU31"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="T91:Y91"/>
+    <mergeCell ref="T92:Y92"/>
+    <mergeCell ref="T93:Y93"/>
+    <mergeCell ref="T94:Y94"/>
+    <mergeCell ref="T95:Y95"/>
+    <mergeCell ref="T96:Y96"/>
+    <mergeCell ref="T97:Y97"/>
+    <mergeCell ref="T98:Y98"/>
+    <mergeCell ref="T99:Y99"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="T84:Y84"/>
+    <mergeCell ref="T85:Y85"/>
+    <mergeCell ref="T86:Y86"/>
+    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="T89:Y89"/>
+    <mergeCell ref="T90:Y90"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="T74:Y74"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="T57:Y57"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="T61:Y61"/>
+    <mergeCell ref="T62:Y62"/>
+    <mergeCell ref="T63:Y63"/>
+    <mergeCell ref="Q99:S99"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="Q90:S90"/>
+    <mergeCell ref="Q91:S91"/>
+    <mergeCell ref="Q92:S92"/>
+    <mergeCell ref="Q93:S93"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="Q84:S84"/>
+    <mergeCell ref="Q85:S85"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Q87:S87"/>
+    <mergeCell ref="Q88:S88"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q74:S74"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="Q80:S80"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q70:S70"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N80:P80"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N84:P84"/>
+    <mergeCell ref="N85:P85"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="N79:P79"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="AG25:AH25"/>
     <mergeCell ref="AG26:AH26"/>
@@ -9324,546 +9853,17 @@
     <mergeCell ref="AC25:AD25"/>
     <mergeCell ref="Y28:Z28"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N80:P80"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N84:P84"/>
-    <mergeCell ref="N85:P85"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="N100:P100"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q70:S70"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q74:S74"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q78:S78"/>
-    <mergeCell ref="Q79:S79"/>
-    <mergeCell ref="Q80:S80"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="Q84:S84"/>
-    <mergeCell ref="Q85:S85"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="Q87:S87"/>
-    <mergeCell ref="Q88:S88"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="Q90:S90"/>
-    <mergeCell ref="Q91:S91"/>
-    <mergeCell ref="Q92:S92"/>
-    <mergeCell ref="Q93:S93"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
-    <mergeCell ref="Q99:S99"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="T61:Y61"/>
-    <mergeCell ref="T62:Y62"/>
-    <mergeCell ref="T63:Y63"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T88:Y88"/>
-    <mergeCell ref="T89:Y89"/>
-    <mergeCell ref="T90:Y90"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="T74:Y74"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="T100:Y100"/>
-    <mergeCell ref="T101:Y101"/>
-    <mergeCell ref="AB31:AU31"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="T91:Y91"/>
-    <mergeCell ref="T92:Y92"/>
-    <mergeCell ref="T93:Y93"/>
-    <mergeCell ref="T94:Y94"/>
-    <mergeCell ref="T95:Y95"/>
-    <mergeCell ref="T96:Y96"/>
-    <mergeCell ref="T97:Y97"/>
-    <mergeCell ref="T98:Y98"/>
-    <mergeCell ref="T99:Y99"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="T84:Y84"/>
-    <mergeCell ref="T85:Y85"/>
-    <mergeCell ref="T86:Y86"/>
-    <mergeCell ref="T87:Y87"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\PycharmProjects\dice_game_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C995F23-B070-4AD0-B0A2-C16E6314CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C6DB4D-04EC-4110-B230-E7AF277E257F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="334">
   <si>
     <t>Mobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,10 +1333,6 @@
   </si>
   <si>
     <t>Guard attack - All defence tiles become attack tiles on current board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1772,10 +1768,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1783,26 +1782,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2087,7 +2083,7 @@
   <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="AJ14" sqref="AJ14:AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2225,84 +2221,84 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47" t="s">
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47" t="s">
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
       <c r="AL9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="L10" s="42" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="L10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42" t="s">
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42" t="s">
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42" t="s">
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42" t="s">
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
       <c r="AJ10" s="32" t="s">
         <v>123</v>
       </c>
@@ -2335,71 +2331,71 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="41"/>
       <c r="S11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="40"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="40"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="40" t="s">
+      <c r="AC11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AD11" s="40"/>
+      <c r="AD11" s="41"/>
       <c r="AE11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AF11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="40" t="s">
+      <c r="AG11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AH11" s="40"/>
+      <c r="AH11" s="41"/>
       <c r="AI11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2429,41 +2425,41 @@
         <v>4</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="12"/>
       <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
       <c r="S12" s="12"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
       <c r="W12" s="12"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="11"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
@@ -2493,56 +2489,56 @@
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="12"/>
       <c r="P13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
       <c r="S13" s="12"/>
       <c r="T13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
       <c r="W13" s="12"/>
       <c r="X13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B14" s="6">
         <v>100</v>
@@ -2560,47 +2556,45 @@
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="12"/>
       <c r="P14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
       <c r="S14" s="12"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
       <c r="W14" s="12"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
       <c r="AI14" s="12"/>
-      <c r="AJ14" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
@@ -2623,47 +2617,47 @@
         <v>6</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="12"/>
       <c r="P15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
       <c r="S15" s="12"/>
       <c r="T15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
       <c r="W15" s="12"/>
       <c r="X15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
@@ -2694,49 +2688,47 @@
         <v>35</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="45"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="12"/>
       <c r="P16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
       <c r="S16" s="12"/>
       <c r="T16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
       <c r="W16" s="12"/>
       <c r="X16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
       <c r="AI16" s="12"/>
-      <c r="AJ16" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.45">
@@ -2759,49 +2751,49 @@
         <v>4</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
       <c r="O17" s="12"/>
       <c r="P17" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
       <c r="S17" s="12"/>
       <c r="T17" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
       <c r="W17" s="12"/>
       <c r="X17" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
       <c r="AE17" s="12"/>
       <c r="AF17" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="36" t="s">
         <v>125</v>
@@ -2831,37 +2823,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
       <c r="O18" s="12"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="12"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
       <c r="W18" s="12"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2874,33 +2866,33 @@
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="12"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
       <c r="W19" s="12"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2913,33 +2905,33 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="12"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
       <c r="S20" s="12"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
       <c r="W20" s="12"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2952,33 +2944,33 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="12"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="12"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
       <c r="W21" s="12"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="12"/>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2991,33 +2983,33 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="12"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
       <c r="S22" s="12"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
       <c r="W22" s="12"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="11"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -3030,33 +3022,33 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
       <c r="O23" s="12"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
       <c r="S23" s="12"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="12"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="11"/>
-      <c r="AG23" s="39"/>
-      <c r="AH23" s="39"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -3069,33 +3061,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="12"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
       <c r="S24" s="12"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="12"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="11"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="39"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3108,33 +3100,33 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="12"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="12"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="11"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3147,33 +3139,33 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="12"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
       <c r="W26" s="12"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="11"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3186,33 +3178,33 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
       <c r="O27" s="12"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
       <c r="S27" s="12"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
       <c r="W27" s="12"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="11"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3225,33 +3217,33 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
       <c r="O28" s="12"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
       <c r="S28" s="12"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
       <c r="W28" s="12"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="11"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3276,28 +3268,28 @@
       <c r="T31" t="s">
         <v>259</v>
       </c>
-      <c r="AB31" s="40" t="s">
+      <c r="AB31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="40"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="40"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
       <c r="AX31" t="s">
         <v>185</v>
       </c>
@@ -3315,39 +3307,39 @@
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40" t="s">
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40" t="s">
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40" t="s">
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40" t="s">
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
       <c r="Z32" s="1" t="s">
         <v>129</v>
       </c>
@@ -3435,44 +3427,44 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="46" t="s">
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
       <c r="Z33" s="6">
         <v>1</v>
       </c>
@@ -3526,38 +3518,38 @@
         <v>157</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39" t="s">
+      <c r="E34" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="46" t="s">
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
       <c r="Z34" s="6">
         <v>1</v>
       </c>
@@ -3616,37 +3608,37 @@
         <v>280</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39" t="s">
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39" t="s">
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="46" t="s">
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
       <c r="Z35" s="6">
         <v>1</v>
       </c>
@@ -3699,35 +3691,35 @@
         <v>279</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39" t="s">
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="46" t="s">
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
       <c r="Z36" s="6">
         <v>1</v>
       </c>
@@ -3786,37 +3778,37 @@
         <v>281</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39" t="s">
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39" t="s">
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="46" t="s">
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
       <c r="Z37" s="6">
         <v>4</v>
       </c>
@@ -3862,35 +3854,35 @@
         <v>274</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39" t="s">
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="46" t="s">
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
       <c r="Z38" s="6">
         <v>3</v>
       </c>
@@ -3937,33 +3929,33 @@
         <v>285</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39" t="s">
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="46" t="s">
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
       <c r="Z39" s="6">
         <v>2</v>
       </c>
@@ -4022,33 +4014,33 @@
         <v>284</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39" t="s">
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39" t="s">
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="46" t="s">
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
       <c r="Z40" s="6">
         <v>8</v>
       </c>
@@ -4090,35 +4082,35 @@
         <v>286</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39" t="s">
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39" t="s">
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="46" t="s">
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
       <c r="Z41" s="6">
         <v>3</v>
       </c>
@@ -4166,35 +4158,35 @@
         <v>290</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="46" t="s">
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
       <c r="Z42" s="6">
         <v>3</v>
       </c>
@@ -4247,35 +4239,35 @@
         <v>281</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39" t="s">
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="46" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
       <c r="Z43" s="6">
         <v>3</v>
       </c>
@@ -4327,35 +4319,35 @@
         <v>281</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39" t="s">
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="46" t="s">
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
       <c r="Z44" s="6">
         <v>3</v>
       </c>
@@ -4405,37 +4397,37 @@
         <v>288</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="43" t="s">
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="43" t="s">
+      <c r="L45" s="43"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="O45" s="44"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39" t="s">
+      <c r="O45" s="43"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
       <c r="Z45" s="6">
         <v>4</v>
       </c>
@@ -4486,37 +4478,37 @@
         <v>100</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39" t="s">
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39" t="s">
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39" t="s">
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39" t="s">
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
       <c r="Z46" s="6">
         <v>4</v>
       </c>
@@ -4557,37 +4549,37 @@
         <v>300</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39" t="s">
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="43" t="s">
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39" t="s">
+      <c r="O47" s="43"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
       <c r="Z47" s="6">
         <v>6</v>
       </c>
@@ -4628,39 +4620,39 @@
         <v>100</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39" t="s">
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39" t="s">
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39" t="s">
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39" t="s">
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
       <c r="Z48" s="6">
         <v>10</v>
       </c>
@@ -4694,7 +4686,7 @@
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
@@ -4703,39 +4695,39 @@
       <c r="D49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39" t="s">
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39" t="s">
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39" t="s">
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="46" t="s">
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
       <c r="Z49" s="6" t="s">
         <v>272</v>
       </c>
@@ -4769,27 +4761,27 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="19"/>
@@ -4820,27 +4812,27 @@
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="19"/>
@@ -4871,27 +4863,27 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="19"/>
@@ -4922,27 +4914,27 @@
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="19"/>
@@ -4973,27 +4965,27 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="19"/>
@@ -5024,27 +5016,27 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="19"/>
@@ -5075,27 +5067,27 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="19"/>
@@ -5126,27 +5118,27 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="19"/>
@@ -5177,27 +5169,27 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="19"/>
@@ -5228,27 +5220,27 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="19"/>
@@ -5278,27 +5270,27 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="19"/>
@@ -5329,27 +5321,27 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="19"/>
@@ -5380,27 +5372,27 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="19"/>
@@ -5431,27 +5423,27 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="19"/>
@@ -5482,27 +5474,27 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="19"/>
@@ -5539,33 +5531,33 @@
       <c r="D65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39" t="s">
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="46" t="s">
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="20"/>
@@ -5601,35 +5593,35 @@
       <c r="D66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39" t="s">
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39" t="s">
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="46" t="s">
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="19"/>
@@ -5666,37 +5658,37 @@
       <c r="D67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39" t="s">
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39" t="s">
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39" t="s">
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39" t="s">
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="19"/>
@@ -5725,27 +5717,27 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="19"/>
@@ -5767,27 +5759,27 @@
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="19"/>
@@ -5817,27 +5809,27 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="19"/>
@@ -5869,27 +5861,27 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="19"/>
@@ -5923,27 +5915,27 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="19"/>
@@ -5975,27 +5967,27 @@
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="19"/>
@@ -6027,27 +6019,27 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="19"/>
@@ -6079,27 +6071,27 @@
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="19"/>
@@ -6131,27 +6123,27 @@
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="19"/>
@@ -6183,27 +6175,27 @@
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="19"/>
@@ -6235,27 +6227,27 @@
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="19"/>
@@ -6287,27 +6279,27 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="19"/>
@@ -6339,27 +6331,27 @@
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="19"/>
@@ -6391,27 +6383,27 @@
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="19"/>
@@ -6443,27 +6435,27 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="19"/>
@@ -6495,27 +6487,27 @@
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="19"/>
@@ -6547,27 +6539,27 @@
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
+